--- a/data/trans_orig/P41B-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P41B-Dificultad-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5369</v>
+        <v>5310</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.003158776035566868</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01586752351719489</v>
+        <v>0.0156940416152476</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8305</v>
+        <v>7914</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.002473374920381405</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01297882502895812</v>
+        <v>0.01236702917658405</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>8975</v>
+        <v>11109</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.002710439373893991</v>
@@ -798,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.009174826087863356</v>
+        <v>0.01135658640267156</v>
       </c>
     </row>
     <row r="5">
@@ -818,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4851</v>
+        <v>5099</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.002463150092546783</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01433718096307967</v>
+        <v>0.01507058447166848</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1</v>
@@ -839,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>7281</v>
+        <v>8447</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.002490090916624822</v>
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.01137804280909077</v>
+        <v>0.01320110099300802</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>8748</v>
+        <v>8604</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.002480772706315942</v>
@@ -869,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.008942714091219467</v>
+        <v>0.008795842505294832</v>
       </c>
     </row>
     <row r="6">
@@ -933,19 +933,19 @@
         <v>2649</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>831</v>
+        <v>836</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7434</v>
+        <v>7318</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.00783053732917826</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0024560481121737</v>
+        <v>0.002470853907134148</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02197137343782653</v>
+        <v>0.02162716839431121</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>6</v>
@@ -954,19 +954,19 @@
         <v>6834</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2997</v>
+        <v>2688</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>14291</v>
+        <v>13575</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01068051186752498</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.004684387510152768</v>
+        <v>0.004200442066513987</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02233373889707243</v>
+        <v>0.02121409637571132</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>9</v>
@@ -975,19 +975,19 @@
         <v>9484</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>4432</v>
+        <v>4257</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>17108</v>
+        <v>16707</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.009694771340570729</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.004530494775284208</v>
+        <v>0.004351854047027572</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01748898097036445</v>
+        <v>0.01707884999393384</v>
       </c>
     </row>
     <row r="8">
@@ -1007,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>9011</v>
+        <v>11886</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.007988675173096784</v>
@@ -1016,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02663245852054347</v>
+        <v>0.03512796078887034</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>4</v>
@@ -1025,19 +1025,19 @@
         <v>4566</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1073</v>
+        <v>983</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>11803</v>
+        <v>10500</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.007136270071245817</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.001676625728604927</v>
+        <v>0.001536703148606277</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01844505143363776</v>
+        <v>0.0164088566345851</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>6</v>
@@ -1046,19 +1046,19 @@
         <v>7269</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2756</v>
+        <v>2817</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>15241</v>
+        <v>14618</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.007431097355830786</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.002817521967518422</v>
+        <v>0.002879607522854888</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01558025697564862</v>
+        <v>0.01494336724285279</v>
       </c>
     </row>
     <row r="9">
@@ -1075,19 +1075,19 @@
         <v>4805</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>10664</v>
+        <v>11106</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01420198050172131</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.005468371160435366</v>
+        <v>0.005463401813288873</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.03151684556596818</v>
+        <v>0.03282511434796243</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>9</v>
@@ -1096,19 +1096,19 @@
         <v>10179</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>5048</v>
+        <v>4942</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>18480</v>
+        <v>19235</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01590802329504108</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.007888179202688275</v>
+        <v>0.007722717962638109</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.0288799761166575</v>
+        <v>0.03005995571599857</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>14</v>
@@ -1117,19 +1117,19 @@
         <v>14985</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>8205</v>
+        <v>8606</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>24410</v>
+        <v>24770</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01531794240152225</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.008387288501727319</v>
+        <v>0.008797594274155074</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.02495328830989528</v>
+        <v>0.02532074032023945</v>
       </c>
     </row>
     <row r="10">
@@ -1146,19 +1146,19 @@
         <v>6275</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1860</v>
+        <v>1965</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13735</v>
+        <v>14803</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01854634579593716</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.005498282150197596</v>
+        <v>0.0058081373758796</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04059384468748294</v>
+        <v>0.04375189515797892</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>12</v>
@@ -1167,19 +1167,19 @@
         <v>12233</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6290</v>
+        <v>6988</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>21077</v>
+        <v>21044</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01911762000336378</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.009830132475871157</v>
+        <v>0.01092127696712635</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03293914090560041</v>
+        <v>0.03288615139207586</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>17</v>
@@ -1188,19 +1188,19 @@
         <v>18508</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>11512</v>
+        <v>11046</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>28409</v>
+        <v>29352</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01892002941766305</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01176813336002635</v>
+        <v>0.01129130343483155</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02904077543252077</v>
+        <v>0.03000483738240445</v>
       </c>
     </row>
     <row r="11">
@@ -1217,19 +1217,19 @@
         <v>320016</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>309140</v>
+        <v>309513</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>327017</v>
+        <v>327564</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9458105350719528</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9136664958412615</v>
+        <v>0.9147700942874883</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9665009026600809</v>
+        <v>0.9681191052808028</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>583</v>
@@ -1238,19 +1238,19 @@
         <v>602902</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>588804</v>
+        <v>588997</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>614453</v>
+        <v>614264</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9421941089258181</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9201635523311279</v>
+        <v>0.9204648895466274</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9602467413565294</v>
+        <v>0.9599510495102602</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>906</v>
@@ -1259,19 +1259,19 @@
         <v>922917</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>904848</v>
+        <v>907286</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>935368</v>
+        <v>937052</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9434449474042033</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9249737251471244</v>
+        <v>0.9274656945850573</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.956172392380234</v>
+        <v>0.9578940232373515</v>
       </c>
     </row>
     <row r="12">
@@ -1413,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>5367</v>
+        <v>5051</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.001625942069127238</v>
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01029597323078178</v>
+        <v>0.009689787434444774</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>4233</v>
+        <v>4851</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.0007440838193023617</v>
@@ -1456,7 +1456,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.003715988621546589</v>
+        <v>0.004258199564079487</v>
       </c>
     </row>
     <row r="15">
@@ -1520,19 +1520,19 @@
         <v>5246</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2001</v>
+        <v>1953</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>11841</v>
+        <v>11721</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01006274752867475</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.003838062219174253</v>
+        <v>0.003745562297536929</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02271508699368629</v>
+        <v>0.02248381605622077</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -1541,19 +1541,19 @@
         <v>5903</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2906</v>
+        <v>1961</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>12886</v>
+        <v>11974</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.009554634405319918</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.004704262379056095</v>
+        <v>0.003174563047383902</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02085761829783027</v>
+        <v>0.01938118713136475</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>11</v>
@@ -1562,19 +1562,19 @@
         <v>11149</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5991</v>
+        <v>6093</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>19793</v>
+        <v>20066</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.009787163448415815</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.005259747419928657</v>
+        <v>0.005348528212990388</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01737599905014533</v>
+        <v>0.01761573231725326</v>
       </c>
     </row>
     <row r="17">
@@ -1591,19 +1591,19 @@
         <v>12235</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>6374</v>
+        <v>6330</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>22232</v>
+        <v>22110</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02347099095202623</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0122281976674732</v>
+        <v>0.01214360045464396</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04264718088163798</v>
+        <v>0.04241460672276592</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>9</v>
@@ -1612,19 +1612,19 @@
         <v>10312</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>4852</v>
+        <v>5184</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>19562</v>
+        <v>19235</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.0166909005393445</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.007853080785869417</v>
+        <v>0.008390769355627258</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.03166296048189658</v>
+        <v>0.03113492518689803</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>20</v>
@@ -1633,19 +1633,19 @@
         <v>22547</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>14011</v>
+        <v>14798</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>34599</v>
+        <v>34967</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01979368978705217</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01230006918675931</v>
+        <v>0.01299135031318311</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.03037397545074592</v>
+        <v>0.03069721661761568</v>
       </c>
     </row>
     <row r="18">
@@ -1662,19 +1662,19 @@
         <v>17242</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>10917</v>
+        <v>10792</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>26814</v>
+        <v>26561</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.03307533934729789</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02094187503280679</v>
+        <v>0.02070327078224117</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.05143824436906044</v>
+        <v>0.05095215781452163</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>17</v>
@@ -1683,19 +1683,19 @@
         <v>18049</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>11378</v>
+        <v>10748</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>29729</v>
+        <v>28645</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.02921435260806668</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01841660911086259</v>
+        <v>0.01739687582283285</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.04811910491320645</v>
+        <v>0.0463652673218144</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>36</v>
@@ -1704,19 +1704,19 @@
         <v>35291</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>24810</v>
+        <v>24273</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>48859</v>
+        <v>47287</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.03098126534976419</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02178075210204554</v>
+        <v>0.02130870205348234</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.04289236399562672</v>
+        <v>0.04151267094116978</v>
       </c>
     </row>
     <row r="19">
@@ -1733,19 +1733,19 @@
         <v>16164</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>10288</v>
+        <v>10332</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>25337</v>
+        <v>25056</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03100794431569808</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0197362718195281</v>
+        <v>0.0198207208904801</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04860509157663844</v>
+        <v>0.0480650288721183</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>18</v>
@@ -1754,19 +1754,19 @@
         <v>19002</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>11030</v>
+        <v>11661</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>28615</v>
+        <v>29734</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03075725005403909</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01785286341188067</v>
+        <v>0.01887490195612741</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04631654434796124</v>
+        <v>0.04812753014580516</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>35</v>
@@ -1775,19 +1775,19 @@
         <v>35166</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>25308</v>
+        <v>24124</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>50378</v>
+        <v>47546</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03087197587806094</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0222174584155146</v>
+        <v>0.02117848142395723</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0442260330042387</v>
+        <v>0.04173993570960154</v>
       </c>
     </row>
     <row r="20">
@@ -1804,19 +1804,19 @@
         <v>469555</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>453894</v>
+        <v>453691</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>481592</v>
+        <v>481632</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9007570357871758</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8707143046849467</v>
+        <v>0.8703246525398727</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9238478314827931</v>
+        <v>0.9239259445520659</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>551</v>
@@ -1825,19 +1825,19 @@
         <v>564545</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>548088</v>
+        <v>550817</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>576359</v>
+        <v>577146</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9137828623932298</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8871448816932614</v>
+        <v>0.8915623775495667</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9329051607376176</v>
+        <v>0.9341789851037574</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1016</v>
@@ -1846,19 +1846,19 @@
         <v>1034100</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1012031</v>
+        <v>1016821</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1050985</v>
+        <v>1053010</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9078218217174046</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.888447598960394</v>
+        <v>0.8926531959471042</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.922645297352097</v>
+        <v>0.9244226495942286</v>
       </c>
     </row>
     <row r="21">
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>7071</v>
+        <v>6231</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.003814568600133707</v>
@@ -1975,7 +1975,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01321846704050251</v>
+        <v>0.01164791028308021</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2</v>
@@ -1987,7 +1987,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>6277</v>
+        <v>7146</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.001922566556376376</v>
@@ -1996,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.005913409339615726</v>
+        <v>0.006732265324173974</v>
       </c>
     </row>
     <row r="23">
@@ -2107,19 +2107,19 @@
         <v>5334</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1746</v>
+        <v>1539</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>15877</v>
+        <v>13713</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01013229932402089</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.003315532482001061</v>
+        <v>0.002923524526876188</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03015859018987326</v>
+        <v>0.02604806321135978</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>6935</v>
+        <v>5727</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.003552210458595103</v>
@@ -2140,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01296320573659323</v>
+        <v>0.01070469129035429</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>6</v>
@@ -2149,19 +2149,19 @@
         <v>7235</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2586</v>
+        <v>2832</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>16345</v>
+        <v>17173</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.006815893167317151</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.002436351952224673</v>
+        <v>0.00266800800129281</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0153986467738916</v>
+        <v>0.01617904276241938</v>
       </c>
     </row>
     <row r="26">
@@ -2178,19 +2178,19 @@
         <v>14067</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>7826</v>
+        <v>7524</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>24925</v>
+        <v>25160</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02671981767895385</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01486615044656022</v>
+        <v>0.01429249697553088</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.04734441815864234</v>
+        <v>0.04778964784422262</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>10</v>
@@ -2199,19 +2199,19 @@
         <v>10362</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>5199</v>
+        <v>5156</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>18147</v>
+        <v>18632</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01936919797246611</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.009717537156979263</v>
+        <v>0.009637108216071258</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.03392233216858078</v>
+        <v>0.03482787560578216</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>22</v>
@@ -2220,19 +2220,19 @@
         <v>24429</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>15734</v>
+        <v>15311</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>36400</v>
+        <v>36470</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.02301505913408481</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01482357263796917</v>
+        <v>0.01442439705511495</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.03429314896232376</v>
+        <v>0.03435952210659708</v>
       </c>
     </row>
     <row r="27">
@@ -2249,19 +2249,19 @@
         <v>24335</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>15870</v>
+        <v>15814</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>35500</v>
+        <v>34971</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.04622304514394621</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.03014364482554572</v>
+        <v>0.03003838464444935</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.06743019263083527</v>
+        <v>0.06642639716373343</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>16</v>
@@ -2270,19 +2270,19 @@
         <v>15774</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>9734</v>
+        <v>9428</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>25107</v>
+        <v>24940</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.02948549800317879</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.01819524077080114</v>
+        <v>0.01762389018240993</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.04693127219248323</v>
+        <v>0.04661911953723355</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>41</v>
@@ -2291,19 +2291,19 @@
         <v>40109</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>29050</v>
+        <v>28929</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>52313</v>
+        <v>53738</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.03778721615728581</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.02736819328932288</v>
+        <v>0.02725456841771178</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.04928510929186834</v>
+        <v>0.0506274372719992</v>
       </c>
     </row>
     <row r="28">
@@ -2320,19 +2320,19 @@
         <v>22744</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>14405</v>
+        <v>14578</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>34170</v>
+        <v>33881</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.04320204331771185</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02736182960001986</v>
+        <v>0.02768992849275625</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.06490387671099505</v>
+        <v>0.06435555923427495</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>19</v>
@@ -2341,19 +2341,19 @@
         <v>20050</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>11928</v>
+        <v>12639</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>30988</v>
+        <v>30184</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.03747846540634801</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.02229675138724247</v>
+        <v>0.02362627535892747</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.05792537087658552</v>
+        <v>0.05642203451866679</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>41</v>
@@ -2362,19 +2362,19 @@
         <v>42794</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>31688</v>
+        <v>32681</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>57930</v>
+        <v>58413</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.04031732406667598</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.02985375539226781</v>
+        <v>0.03078948582703413</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.05457691943252003</v>
+        <v>0.05503246896277584</v>
       </c>
     </row>
     <row r="29">
@@ -2391,19 +2391,19 @@
         <v>459984</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>441556</v>
+        <v>442997</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>473824</v>
+        <v>475825</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.8737227945353672</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8387198643742592</v>
+        <v>0.841457912853579</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.900011914054164</v>
+        <v>0.9038120756064105</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>483</v>
@@ -2412,19 +2412,19 @@
         <v>484842</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>470941</v>
+        <v>470188</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>496922</v>
+        <v>496269</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9063000595592783</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8803150278671553</v>
+        <v>0.8789071175732751</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9288804121925524</v>
+        <v>0.927659316994199</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>948</v>
@@ -2433,19 +2433,19 @@
         <v>944827</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>920758</v>
+        <v>923240</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>964073</v>
+        <v>964613</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.8901419409182598</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.867466073353938</v>
+        <v>0.8698043756632889</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9082743099078388</v>
+        <v>0.9087829256629263</v>
       </c>
     </row>
     <row r="30">
@@ -2553,7 +2553,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>5972</v>
+        <v>6002</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.007732539146537547</v>
@@ -2562,7 +2562,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.03836303620501983</v>
+        <v>0.03855646092185588</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1</v>
@@ -2574,7 +2574,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>6040</v>
+        <v>8502</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.003431826295092423</v>
@@ -2583,7 +2583,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.01721970222381206</v>
+        <v>0.02423850758946708</v>
       </c>
     </row>
     <row r="32">
@@ -2697,7 +2697,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>6760</v>
+        <v>6722</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.009910257880691886</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.03465361507325402</v>
+        <v>0.03445485269843811</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>5830</v>
+        <v>6563</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.00551192468876303</v>
@@ -2740,7 +2740,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.01662185832146021</v>
+        <v>0.018710277579611</v>
       </c>
     </row>
     <row r="35">
@@ -2757,19 +2757,19 @@
         <v>3804</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>969</v>
+        <v>958</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>9235</v>
+        <v>9607</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.01949674204696315</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.004969251999009497</v>
+        <v>0.004912010237120863</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.047339329744832</v>
+        <v>0.04924585699538572</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>1</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>5331</v>
+        <v>5742</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.007359854025657029</v>
@@ -2790,7 +2790,7 @@
         <v>0</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.03424334676726815</v>
+        <v>0.03688701079420961</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>5</v>
@@ -2799,19 +2799,19 @@
         <v>4949</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>1922</v>
+        <v>1908</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>10926</v>
+        <v>11895</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.01411019428266748</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.005480594525795713</v>
+        <v>0.005439827329413632</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.03115080309441022</v>
+        <v>0.03391107338753977</v>
       </c>
     </row>
     <row r="36">
@@ -2828,19 +2828,19 @@
         <v>7748</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>3825</v>
+        <v>3038</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>15581</v>
+        <v>14073</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.03971667217468606</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.01960874127284008</v>
+        <v>0.01557324337937549</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.07986617027533975</v>
+        <v>0.07213988616634463</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>10</v>
@@ -2849,19 +2849,19 @@
         <v>9796</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>4836</v>
+        <v>5028</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>17411</v>
+        <v>17230</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.06292461480261295</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.03106344496309993</v>
+        <v>0.0322961833440086</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1118452385898004</v>
+        <v>0.1106822944248805</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>18</v>
@@ -2870,19 +2870,19 @@
         <v>17544</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>10655</v>
+        <v>11541</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>25888</v>
+        <v>28124</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.05001673354601185</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.03037705731970187</v>
+        <v>0.03290245062401822</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.0738058318873018</v>
+        <v>0.08017918275340921</v>
       </c>
     </row>
     <row r="37">
@@ -2899,19 +2899,19 @@
         <v>2963</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>962</v>
+        <v>966</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>7398</v>
+        <v>8160</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.01518769837478202</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.004932883336296164</v>
+        <v>0.004951175338159854</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.0379205815940096</v>
+        <v>0.04182866775860049</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>2</v>
@@ -2923,7 +2923,7 @@
         <v>0</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>6453</v>
+        <v>7045</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.01308549398233454</v>
@@ -2932,7 +2932,7 @@
         <v>0</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.04145468684376736</v>
+        <v>0.04525558473220041</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>5</v>
@@ -2941,19 +2941,19 @@
         <v>5000</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1946</v>
+        <v>1798</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>11781</v>
+        <v>10659</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.01425470596763843</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.005548741346007276</v>
+        <v>0.005125721763649664</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.03358673495802001</v>
+        <v>0.03038834494072364</v>
       </c>
     </row>
     <row r="38">
@@ -2970,19 +2970,19 @@
         <v>178638</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>169647</v>
+        <v>170571</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>184919</v>
+        <v>185318</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.9156886295228769</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.8696035931438352</v>
+        <v>0.8743354691310471</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.9478824125162526</v>
+        <v>0.9499319446042367</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>140</v>
@@ -2991,19 +2991,19 @@
         <v>141491</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>132506</v>
+        <v>133019</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>147944</v>
+        <v>147696</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.9088974980428579</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.8511827802566684</v>
+        <v>0.8544752024396826</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.9503510150754412</v>
+        <v>0.9487605822600512</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>319</v>
@@ -3012,19 +3012,19 @@
         <v>320129</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>309909</v>
+        <v>307611</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>328808</v>
+        <v>329142</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.9126746152198268</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.8835374616640269</v>
+        <v>0.8769866061592463</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.9374185787531327</v>
+        <v>0.9383704469911994</v>
       </c>
     </row>
     <row r="39">
@@ -3119,7 +3119,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>7997</v>
+        <v>5331</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.0006759311625857045</v>
@@ -3128,7 +3128,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.005057352764073516</v>
+        <v>0.003371507257196954</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>4</v>
@@ -3137,19 +3137,19 @@
         <v>4827</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>1580</v>
+        <v>1591</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>12357</v>
+        <v>12828</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.002477546405128169</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.0008110258682478</v>
+        <v>0.0008165732069033633</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.006342363632215544</v>
+        <v>0.0065839740123768</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>5</v>
@@ -3158,19 +3158,19 @@
         <v>5896</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>2119</v>
+        <v>2125</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>13679</v>
+        <v>14758</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.001670443292379509</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.0006004634967322191</v>
+        <v>0.0006020696942119509</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.00387565384221625</v>
+        <v>0.004181257089895742</v>
       </c>
     </row>
     <row r="41">
@@ -3190,7 +3190,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>5110</v>
+        <v>5863</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.001063119950825853</v>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.003232050637955813</v>
+        <v>0.003707792198065595</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>1</v>
@@ -3211,7 +3211,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>6931</v>
+        <v>8296</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.0008178159783834956</v>
@@ -3220,7 +3220,7 @@
         <v>0</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.003557597401104865</v>
+        <v>0.004257758901268702</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>3</v>
@@ -3229,19 +3229,19 @@
         <v>3274</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>833</v>
+        <v>837</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>9683</v>
+        <v>10115</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.0009277093646363994</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.0002360802413351714</v>
+        <v>0.0002371694446511433</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.002743363758669611</v>
+        <v>0.002865865564910961</v>
       </c>
     </row>
     <row r="42">
@@ -3305,19 +3305,19 @@
         <v>15163</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>8618</v>
+        <v>8202</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>25667</v>
+        <v>24661</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.009589431173579337</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.005450079028890785</v>
+        <v>0.005187204283841715</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.01623301395950162</v>
+        <v>0.01559632639099091</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>14</v>
@@ -3326,19 +3326,19 @@
         <v>14638</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>8121</v>
+        <v>8252</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>23935</v>
+        <v>23155</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.007512864885032942</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.004167947788006146</v>
+        <v>0.004235250841669471</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.01228486262759806</v>
+        <v>0.01188455550488275</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>28</v>
@@ -3347,19 +3347,19 @@
         <v>29800</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>20073</v>
+        <v>19687</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>43398</v>
+        <v>44331</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.008443142935383764</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.005687292722312206</v>
+        <v>0.005577826785139821</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.01229556756750017</v>
+        <v>0.01256002917587622</v>
       </c>
     </row>
     <row r="44">
@@ -3376,19 +3376,19 @@
         <v>32809</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>22227</v>
+        <v>21331</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>47568</v>
+        <v>45553</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.02074937538910815</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.0140574269840825</v>
+        <v>0.01349030539199215</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.0300838217279535</v>
+        <v>0.02880918147911674</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>24</v>
@@ -3397,19 +3397,19 @@
         <v>26386</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>17341</v>
+        <v>16706</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>39653</v>
+        <v>38525</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.01354273793433423</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.008900481484297026</v>
+        <v>0.008574410200221195</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.02035236185475398</v>
+        <v>0.01977335186958574</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>53</v>
@@ -3418,19 +3418,19 @@
         <v>59195</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>45308</v>
+        <v>45460</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>79580</v>
+        <v>76518</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.01677122944842176</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.01283678905397508</v>
+        <v>0.01287996510025833</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.02254675457848523</v>
+        <v>0.02167932745226427</v>
       </c>
     </row>
     <row r="45">
@@ -3447,19 +3447,19 @@
         <v>54130</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>41242</v>
+        <v>41732</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>68239</v>
+        <v>70046</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.03423370967563686</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.026082773788791</v>
+        <v>0.02639248703617579</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.04315649787287373</v>
+        <v>0.04429939894781149</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>52</v>
@@ -3468,19 +3468,19 @@
         <v>53798</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>40690</v>
+        <v>39959</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>69367</v>
+        <v>67848</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.02761207848296948</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.02088438261883731</v>
+        <v>0.02050903700409781</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.03560288571236551</v>
+        <v>0.03482322309996501</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>109</v>
@@ -3489,19 +3489,19 @@
         <v>107928</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>89569</v>
+        <v>90272</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>130132</v>
+        <v>130815</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.03057849385339755</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.02537702479284179</v>
+        <v>0.02557612216508877</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.03686944712622942</v>
+        <v>0.03706307227520673</v>
       </c>
     </row>
     <row r="46">
@@ -3518,19 +3518,19 @@
         <v>48147</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>35416</v>
+        <v>36037</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>63585</v>
+        <v>63467</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.03044953141039062</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.02239831831830882</v>
+        <v>0.02279075481344065</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.04021342707153258</v>
+        <v>0.04013849073945185</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>51</v>
@@ -3539,19 +3539,19 @@
         <v>53322</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>40337</v>
+        <v>40684</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>71438</v>
+        <v>69426</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.02736798254081612</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.02070313845420611</v>
+        <v>0.02088120182415649</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.03666615363856302</v>
+        <v>0.03563356738511989</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>98</v>
@@ -3560,19 +3560,19 @@
         <v>101469</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>83144</v>
+        <v>83155</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>123000</v>
+        <v>121947</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.02874848134321903</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.02355651956014043</v>
+        <v>0.02355981885825111</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.03484876228986593</v>
+        <v>0.03455042226444465</v>
       </c>
     </row>
     <row r="47">
@@ -3589,19 +3589,19 @@
         <v>1428193</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>1403037</v>
+        <v>1402930</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>1451999</v>
+        <v>1448516</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.9032389012378734</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.8873292374426576</v>
+        <v>0.8872614880918772</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.9182947497552857</v>
+        <v>0.916091481903033</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>1757</v>
@@ -3610,19 +3610,19 @@
         <v>1793779</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>1769124</v>
+        <v>1769418</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>1817221</v>
+        <v>1815240</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.9206689737733356</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.9080147390512671</v>
+        <v>0.9081654368754121</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.9327006378387154</v>
+        <v>0.931683826867133</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>3189</v>
@@ -3631,19 +3631,19 @@
         <v>3221972</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>3184588</v>
+        <v>3189446</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>3252368</v>
+        <v>3254427</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.912860499762562</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.9022686699054675</v>
+        <v>0.903645189125978</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.9214723670495447</v>
+        <v>0.9220557153436295</v>
       </c>
     </row>
     <row r="48">
@@ -3978,7 +3978,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5281</v>
+        <v>5296</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.001844325514344763</v>
@@ -3987,7 +3987,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.009237148885963707</v>
+        <v>0.009264042031564819</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -3999,7 +3999,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4847</v>
+        <v>5739</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.001342724665311614</v>
@@ -4008,7 +4008,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.006782863863618148</v>
+        <v>0.008030984363791856</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -4020,7 +4020,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>6930</v>
+        <v>7281</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.001565657694271649</v>
@@ -4029,7 +4029,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.005387332329791533</v>
+        <v>0.005660542746733624</v>
       </c>
     </row>
     <row r="5">
@@ -4046,19 +4046,19 @@
         <v>7015</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2977</v>
+        <v>3003</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>14646</v>
+        <v>14577</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01227163064068957</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.005207060563414305</v>
+        <v>0.005252262863425436</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02561938455957834</v>
+        <v>0.02549830439346102</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>3</v>
@@ -4067,19 +4067,19 @@
         <v>3244</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>995</v>
+        <v>998</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>8570</v>
+        <v>9746</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.004539057180600258</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.001393031719983423</v>
+        <v>0.001396459172329004</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.01199317420871682</v>
+        <v>0.0136378428457658</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>10</v>
@@ -4088,19 +4088,19 @@
         <v>10259</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>5463</v>
+        <v>5426</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>19693</v>
+        <v>17786</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.007975745986921967</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.004246778400205578</v>
+        <v>0.004217989412127794</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01530993302932483</v>
+        <v>0.01382716957292695</v>
       </c>
     </row>
     <row r="6">
@@ -4120,7 +4120,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4519</v>
+        <v>4511</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.001569006825206167</v>
@@ -4129,7 +4129,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.007904026458871548</v>
+        <v>0.007890767826842516</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>0</v>
@@ -4154,7 +4154,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>5132</v>
+        <v>4321</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.0006973342343347258</v>
@@ -4163,7 +4163,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.003989519603223507</v>
+        <v>0.003359192690484012</v>
       </c>
     </row>
     <row r="7">
@@ -4180,19 +4180,19 @@
         <v>33794</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>23379</v>
+        <v>23745</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>46101</v>
+        <v>45543</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05911368628902425</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04089534811347136</v>
+        <v>0.04153482341653355</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08064215504589159</v>
+        <v>0.07966546008418619</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>53</v>
@@ -4201,19 +4201,19 @@
         <v>59044</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>45988</v>
+        <v>44477</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>76753</v>
+        <v>77148</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08262550624205497</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06435505555471246</v>
+        <v>0.06224022174593108</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1074067455923168</v>
+        <v>0.1079594591767443</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>85</v>
@@ -4222,19 +4222,19 @@
         <v>92839</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>76633</v>
+        <v>75969</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>114457</v>
+        <v>113431</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07217584043986305</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0595770804933892</v>
+        <v>0.05906071617775677</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.088982633033723</v>
+        <v>0.08818516136391699</v>
       </c>
     </row>
     <row r="8">
@@ -4251,19 +4251,19 @@
         <v>31739</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>21045</v>
+        <v>20326</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>44128</v>
+        <v>45670</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.0555193231758814</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03681291844722857</v>
+        <v>0.03555483959877343</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.07718987796868521</v>
+        <v>0.07988722026011376</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>17</v>
@@ -4272,19 +4272,19 @@
         <v>19426</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>11075</v>
+        <v>11857</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>29954</v>
+        <v>30106</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.0271847551930401</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01549830853119812</v>
+        <v>0.01659200931921086</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.0419166237746119</v>
+        <v>0.04213004222694087</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>43</v>
@@ -4293,19 +4293,19 @@
         <v>51166</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>38465</v>
+        <v>36647</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>69753</v>
+        <v>66564</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.03977785800948169</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02990363591381715</v>
+        <v>0.02849038120840554</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.05422821235118463</v>
+        <v>0.05174889469870685</v>
       </c>
     </row>
     <row r="9">
@@ -4322,19 +4322,19 @@
         <v>20329</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>12880</v>
+        <v>13306</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>30375</v>
+        <v>30573</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.0355598585665124</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02252953513534398</v>
+        <v>0.02327466959220315</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.0531336584456438</v>
+        <v>0.0534790913294747</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>16</v>
@@ -4343,19 +4343,19 @@
         <v>16158</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>9070</v>
+        <v>9819</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>24599</v>
+        <v>26343</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.02261180409674327</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01269186614434505</v>
+        <v>0.01374020552890348</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.03442378307440048</v>
+        <v>0.03686368425000187</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>37</v>
@@ -4364,19 +4364,19 @@
         <v>36487</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>26415</v>
+        <v>25579</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>50277</v>
+        <v>50611</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02836647737460766</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02053584296836684</v>
+        <v>0.01988620204850316</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.03908707200098644</v>
+        <v>0.03934644251353221</v>
       </c>
     </row>
     <row r="10">
@@ -4393,19 +4393,19 @@
         <v>9818</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4978</v>
+        <v>4904</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>17612</v>
+        <v>17312</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01717450071593846</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.008708224312528845</v>
+        <v>0.00857783799958871</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0308075792088205</v>
+        <v>0.03028225836402756</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>14</v>
@@ -4414,19 +4414,19 @@
         <v>14688</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8333</v>
+        <v>8336</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>24139</v>
+        <v>24231</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02055407455695333</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01166092980921299</v>
+        <v>0.01166569759705819</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03377935572751573</v>
+        <v>0.03390778995111279</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>24</v>
@@ -4435,19 +4435,19 @@
         <v>24506</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>14791</v>
+        <v>16140</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>35248</v>
+        <v>36755</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.019052046331874</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01149870792835575</v>
+        <v>0.01254778555791008</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02740312457116624</v>
+        <v>0.02857492887287117</v>
       </c>
     </row>
     <row r="11">
@@ -4464,19 +4464,19 @@
         <v>467032</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>449281</v>
+        <v>447915</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>485626</v>
+        <v>483625</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8169476682724029</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.78589681727154</v>
+        <v>0.7835077919234298</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8494733353858205</v>
+        <v>0.8459731589150822</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>556</v>
@@ -4485,19 +4485,19 @@
         <v>601083</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>577401</v>
+        <v>580591</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>619027</v>
+        <v>622078</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8411420780652965</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8080018654715978</v>
+        <v>0.8124663542505939</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8662531063917051</v>
+        <v>0.8705229050175736</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>986</v>
@@ -4506,19 +4506,19 @@
         <v>1068115</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1040156</v>
+        <v>1040772</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1096350</v>
+        <v>1096341</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8303890399286452</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8086525181829419</v>
+        <v>0.8091311452418133</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8523396130054374</v>
+        <v>0.8523327360910741</v>
       </c>
     </row>
     <row r="12">
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>4742</v>
+        <v>4277</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.001454277484218344</v>
@@ -4635,7 +4635,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.007254371588223265</v>
+        <v>0.00654335681916973</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1</v>
@@ -4647,7 +4647,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>4782</v>
+        <v>5744</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0008549027765209054</v>
@@ -4656,7 +4656,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.004301112942966842</v>
+        <v>0.00516640326733034</v>
       </c>
     </row>
     <row r="14">
@@ -4767,19 +4767,19 @@
         <v>18032</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>10861</v>
+        <v>10612</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>27980</v>
+        <v>28034</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03934775231309703</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02370116783883846</v>
+        <v>0.02315751286820033</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06105723793019251</v>
+        <v>0.06117447956457293</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>17</v>
@@ -4788,19 +4788,19 @@
         <v>18499</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>11218</v>
+        <v>11201</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>29211</v>
+        <v>28938</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02830187650844932</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01716323274370151</v>
+        <v>0.01713732441343873</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04468999287020008</v>
+        <v>0.0442727111271941</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>35</v>
@@ -4809,19 +4809,19 @@
         <v>36531</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>25614</v>
+        <v>25752</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>49597</v>
+        <v>49424</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03285439049117898</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02303659520117491</v>
+        <v>0.02316078308971095</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0446059977561484</v>
+        <v>0.04445018175209722</v>
       </c>
     </row>
     <row r="17">
@@ -4838,19 +4838,19 @@
         <v>3542</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1078</v>
+        <v>1084</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>9703</v>
+        <v>9577</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.00772951299030839</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.002352169513033812</v>
+        <v>0.002366462963642079</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02117417161157891</v>
+        <v>0.02089958545816726</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>7</v>
@@ -4859,19 +4859,19 @@
         <v>8401</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3190</v>
+        <v>4042</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>17468</v>
+        <v>17073</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01285291295416615</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.004880229050781935</v>
+        <v>0.00618425231267383</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.02672386357112605</v>
+        <v>0.02612099818152644</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>10</v>
@@ -4880,19 +4880,19 @@
         <v>11943</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5584</v>
+        <v>6284</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>21644</v>
+        <v>22137</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01074132394238629</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.005021998429770962</v>
+        <v>0.005651843047253822</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.0194659034053958</v>
+        <v>0.01990890682192867</v>
       </c>
     </row>
     <row r="18">
@@ -4909,19 +4909,19 @@
         <v>9535</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4866</v>
+        <v>4749</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>17316</v>
+        <v>17061</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02080772512059361</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.0106183001137588</v>
+        <v>0.01036307235104702</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.03778536637742257</v>
+        <v>0.03722897969077144</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>25</v>
@@ -4930,19 +4930,19 @@
         <v>28560</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>19452</v>
+        <v>18462</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>40521</v>
+        <v>40299</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.0436945552305163</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.02975978612034934</v>
+        <v>0.02824502013068416</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.06199435385033571</v>
+        <v>0.06165344806522149</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>35</v>
@@ -4951,19 +4951,19 @@
         <v>38095</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>26986</v>
+        <v>28165</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>53608</v>
+        <v>52298</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.03426183880870566</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02427044689103005</v>
+        <v>0.02533104617217343</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.04821325711648381</v>
+        <v>0.04703510977935857</v>
       </c>
     </row>
     <row r="19">
@@ -4980,19 +4980,19 @@
         <v>5000</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1905</v>
+        <v>1886</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>11206</v>
+        <v>10952</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01091178127646613</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.004156965076743797</v>
+        <v>0.004114655424902595</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02445341556461956</v>
+        <v>0.02389985167877101</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>15</v>
@@ -5001,19 +5001,19 @@
         <v>14915</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>8817</v>
+        <v>8826</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>23956</v>
+        <v>24063</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02281941049840743</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01348979257424007</v>
+        <v>0.01350271352115534</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03665128051937532</v>
+        <v>0.03681508038661734</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>20</v>
@@ -5022,19 +5022,19 @@
         <v>19916</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>12638</v>
+        <v>12140</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>30047</v>
+        <v>30138</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0179117282563856</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01136653847501783</v>
+        <v>0.01091827500022527</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02702351342178176</v>
+        <v>0.02710476522753619</v>
       </c>
     </row>
     <row r="20">
@@ -5051,19 +5051,19 @@
         <v>422152</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>408442</v>
+        <v>410267</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>432125</v>
+        <v>433073</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9212032282995348</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8912862024631634</v>
+        <v>0.8952688124782805</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.942966335183985</v>
+        <v>0.9450358927917978</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>541</v>
@@ -5072,19 +5072,19 @@
         <v>582304</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>563557</v>
+        <v>566055</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>597452</v>
+        <v>598431</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8908769673242425</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8621959187029088</v>
+        <v>0.8660178601627624</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.914051694527896</v>
+        <v>0.9155497776854581</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>930</v>
@@ -5093,19 +5093,19 @@
         <v>1004455</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>979569</v>
+        <v>980887</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1022174</v>
+        <v>1023106</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9033758157248225</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8809933149811302</v>
+        <v>0.8821793698590744</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9193114738320711</v>
+        <v>0.9201497052757492</v>
       </c>
     </row>
     <row r="21">
@@ -5200,7 +5200,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>6860</v>
+        <v>5984</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.004433652317112603</v>
@@ -5209,7 +5209,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01548013308271054</v>
+        <v>0.01350303143695094</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>4</v>
@@ -5218,19 +5218,19 @@
         <v>4871</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>12335</v>
+        <v>11969</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.009256335472708738</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.001981569218681886</v>
+        <v>0.001979804684081273</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02344315900493701</v>
+        <v>0.02274639830208283</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>6</v>
@@ -5239,19 +5239,19 @@
         <v>6835</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2847</v>
+        <v>2910</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>15554</v>
+        <v>15402</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.007051594525491574</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.00293703645273927</v>
+        <v>0.003002500035670122</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01604587966360613</v>
+        <v>0.0158889385568407</v>
       </c>
     </row>
     <row r="23">
@@ -5362,19 +5362,19 @@
         <v>10896</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>5916</v>
+        <v>5885</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>18924</v>
+        <v>19035</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02458794973744377</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01335019677314858</v>
+        <v>0.01328102310716694</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04270432226472079</v>
+        <v>0.04295604245758225</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>17</v>
@@ -5383,19 +5383,19 @@
         <v>18374</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>11523</v>
+        <v>10423</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>30719</v>
+        <v>28486</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03492008372659415</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02189982969798063</v>
+        <v>0.01980838180129516</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05837998426558883</v>
+        <v>0.0541363157837509</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>28</v>
@@ -5404,19 +5404,19 @@
         <v>29270</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>19475</v>
+        <v>20146</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>42154</v>
+        <v>42303</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03019663867680252</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0200912394801289</v>
+        <v>0.02078349155353481</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04348757832263959</v>
+        <v>0.04364129858102438</v>
       </c>
     </row>
     <row r="26">
@@ -5433,19 +5433,19 @@
         <v>5303</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1958</v>
+        <v>1979</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>12176</v>
+        <v>12205</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01196724074186147</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.004418402190877563</v>
+        <v>0.004466520017755511</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02747773532878116</v>
+        <v>0.02754128147611191</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2</v>
@@ -5457,7 +5457,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>6844</v>
+        <v>7514</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.004177277327071969</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01300602090367458</v>
+        <v>0.01427944963053118</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>7</v>
@@ -5475,19 +5475,19 @@
         <v>7501</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3288</v>
+        <v>3153</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>15416</v>
+        <v>14634</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.007738542034661297</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.003391633482470684</v>
+        <v>0.003253288932653275</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01590411282690319</v>
+        <v>0.01509748273314215</v>
       </c>
     </row>
     <row r="27">
@@ -5504,19 +5504,19 @@
         <v>19573</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>11337</v>
+        <v>12125</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>28809</v>
+        <v>29544</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.04416813403550744</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.02558397559731779</v>
+        <v>0.0273607166572329</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.06501234254770387</v>
+        <v>0.06667100730753968</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>21</v>
@@ -5525,19 +5525,19 @@
         <v>21576</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>13530</v>
+        <v>13149</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>32189</v>
+        <v>32291</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.04100427486825548</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.02571360293207287</v>
+        <v>0.02498892667472079</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.06117434644434326</v>
+        <v>0.06136829377715257</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>40</v>
@@ -5546,19 +5546,19 @@
         <v>41148</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>29817</v>
+        <v>30871</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>55631</v>
+        <v>57139</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.04245066676924001</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.03076103712430219</v>
+        <v>0.0318475364893467</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.05739194207099672</v>
+        <v>0.0589476057199595</v>
       </c>
     </row>
     <row r="28">
@@ -5578,7 +5578,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>4850</v>
+        <v>6305</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.002181837347737132</v>
@@ -5587,7 +5587,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01094455463841855</v>
+        <v>0.0142283805748934</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>16</v>
@@ -5596,19 +5596,19 @@
         <v>18024</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>10941</v>
+        <v>10865</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>28108</v>
+        <v>28286</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.03425339627351227</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.02079287791334277</v>
+        <v>0.02064854878042036</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.05341845068872286</v>
+        <v>0.05375626140574721</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>17</v>
@@ -5617,19 +5617,19 @@
         <v>18991</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>11177</v>
+        <v>11302</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>30376</v>
+        <v>30849</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01959154167444021</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01153101495305008</v>
+        <v>0.01165951078649739</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.03133720068558389</v>
+        <v>0.03182571185364957</v>
       </c>
     </row>
     <row r="29">
@@ -5646,19 +5646,19 @@
         <v>404434</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>392809</v>
+        <v>391924</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>415387</v>
+        <v>415141</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9126611858203376</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8864289779364076</v>
+        <v>0.8844306894165996</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9373777889802627</v>
+        <v>0.9368242038917171</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>428</v>
@@ -5667,19 +5667,19 @@
         <v>461144</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>443846</v>
+        <v>444627</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>475615</v>
+        <v>475760</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.8763886323318574</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8435142535786959</v>
+        <v>0.8449986233152083</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9038891407890752</v>
+        <v>0.904165459391128</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>797</v>
@@ -5688,19 +5688,19 @@
         <v>865578</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>844192</v>
+        <v>845835</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>882986</v>
+        <v>882904</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.8929710163193644</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8709081491948719</v>
+        <v>0.8726029495535318</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9109301211688113</v>
+        <v>0.9108453135950584</v>
       </c>
     </row>
     <row r="30">
@@ -5795,7 +5795,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>4589</v>
+        <v>5059</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.003857930371681039</v>
@@ -5804,7 +5804,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.0190408867065613</v>
+        <v>0.02098690893768904</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>0</v>
@@ -5829,7 +5829,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>4698</v>
+        <v>5078</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.001854205680051779</v>
@@ -5838,7 +5838,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.009367066625668229</v>
+        <v>0.01012496238947582</v>
       </c>
     </row>
     <row r="32">
@@ -5949,19 +5949,19 @@
         <v>3935</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>981</v>
+        <v>1007</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>9780</v>
+        <v>9385</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.01632479778972679</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.004070117903338262</v>
+        <v>0.004176431937906157</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.04057525735820886</v>
+        <v>0.03893843519355028</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>7</v>
@@ -5970,19 +5970,19 @@
         <v>8058</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>3063</v>
+        <v>3116</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>15862</v>
+        <v>15074</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.03093773268001393</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.01175968015099853</v>
+        <v>0.01196348347477778</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.06089638565316041</v>
+        <v>0.05787145664223729</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>11</v>
@@ -5991,19 +5991,19 @@
         <v>11993</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>6127</v>
+        <v>7001</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>21262</v>
+        <v>21539</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.02391443669865312</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.01221739594942114</v>
+        <v>0.01396090758812152</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.04239715211265085</v>
+        <v>0.04294832818682483</v>
       </c>
     </row>
     <row r="35">
@@ -6020,19 +6020,19 @@
         <v>8195</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>3926</v>
+        <v>3868</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>16536</v>
+        <v>17916</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.03399929554401857</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.01628791430239943</v>
+        <v>0.01604896033477614</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.06860482281128574</v>
+        <v>0.0743286800862247</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>0</v>
@@ -6054,19 +6054,19 @@
         <v>8195</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>3189</v>
+        <v>3156</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>16836</v>
+        <v>16208</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.01634080474293496</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.006359424826866138</v>
+        <v>0.006293742490780512</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.03357174542297951</v>
+        <v>0.03231933506131889</v>
       </c>
     </row>
     <row r="36">
@@ -6083,19 +6083,19 @@
         <v>10718</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>4970</v>
+        <v>4744</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>20449</v>
+        <v>19825</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.04446689978202806</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.02061775488176234</v>
+        <v>0.01968003777378147</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.08483894002687926</v>
+        <v>0.0822486848275449</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>9</v>
@@ -6104,19 +6104,19 @@
         <v>8986</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>4013</v>
+        <v>4161</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>16088</v>
+        <v>16267</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.0345005178219751</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.01540671567049261</v>
+        <v>0.01597430167348033</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.06176718861081135</v>
+        <v>0.06245447909929786</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>18</v>
@@ -6125,19 +6125,19 @@
         <v>19704</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>12166</v>
+        <v>12513</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>31036</v>
+        <v>30856</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.03929057888050155</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.02425869293287155</v>
+        <v>0.02495152748104497</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.06188672196778829</v>
+        <v>0.06152628699317035</v>
       </c>
     </row>
     <row r="37">
@@ -6154,19 +6154,19 @@
         <v>4771</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>1851</v>
+        <v>1864</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>10534</v>
+        <v>10752</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.01979390254556013</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.007679454181395127</v>
+        <v>0.007734983297279641</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.04370258283793933</v>
+        <v>0.04460932173874863</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>11</v>
@@ -6175,19 +6175,19 @@
         <v>11013</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>6086</v>
+        <v>5923</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>18767</v>
+        <v>18803</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.04228316803294985</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.0233655166928659</v>
+        <v>0.02273801434314712</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.07205265668308669</v>
+        <v>0.07218992843398091</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>16</v>
@@ -6196,19 +6196,19 @@
         <v>15784</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>8916</v>
+        <v>9573</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>25112</v>
+        <v>24614</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.03147433537152979</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.0177782883324933</v>
+        <v>0.01908944907123512</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.050073520047069</v>
+        <v>0.0490795727257546</v>
       </c>
     </row>
     <row r="38">
@@ -6225,19 +6225,19 @@
         <v>212484</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>200548</v>
+        <v>200261</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>221693</v>
+        <v>221723</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.8815571739669854</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.832034093623088</v>
+        <v>0.8308433439518632</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.919762388943003</v>
+        <v>0.9198859085490895</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>207</v>
@@ -6246,19 +6246,19 @@
         <v>232411</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>220800</v>
+        <v>220727</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>241390</v>
+        <v>241308</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.8922785814650611</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.8477003714468315</v>
+        <v>0.8474230111330687</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.9267507006713229</v>
+        <v>0.9264378420357039</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>399</v>
@@ -6267,19 +6267,19 @@
         <v>444895</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>429180</v>
+        <v>429648</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>459450</v>
+        <v>458323</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.8871256386263288</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.855789418282997</v>
+        <v>0.8567219990784618</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.9161481024341275</v>
+        <v>0.913899761239797</v>
       </c>
     </row>
     <row r="39">
@@ -6371,19 +6371,19 @@
         <v>3949</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>9137</v>
+        <v>9893</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.002303798206147812</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.0005480082542471775</v>
+        <v>0.0005489484763861826</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.00533019798330133</v>
+        <v>0.005771234353939426</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>6</v>
@@ -6392,19 +6392,19 @@
         <v>6781</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>2942</v>
+        <v>2803</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>14670</v>
+        <v>14420</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.003146629577494139</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.001365318300766065</v>
+        <v>0.001300933357843655</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.00680800254157505</v>
+        <v>0.006691973586614813</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>10</v>
@@ -6413,19 +6413,19 @@
         <v>10730</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>5007</v>
+        <v>4968</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>19257</v>
+        <v>19514</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.002773223984607739</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.001294136613060457</v>
+        <v>0.001283933640997739</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.004977202572340337</v>
+        <v>0.005043741745565193</v>
       </c>
     </row>
     <row r="41">
@@ -6442,19 +6442,19 @@
         <v>7015</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>2920</v>
+        <v>3078</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>13677</v>
+        <v>14260</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.004092758338940808</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.001703264810694277</v>
+        <v>0.0017957746452314</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.00797882586722028</v>
+        <v>0.008319010353642414</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>3</v>
@@ -6463,19 +6463,19 @@
         <v>3244</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>9925</v>
+        <v>9003</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.001505240058681471</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.0004607630857301338</v>
+        <v>0.0004624080492836083</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.004605906043738666</v>
+        <v>0.004178054191575035</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>10</v>
@@ -6484,19 +6484,19 @@
         <v>10259</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>5222</v>
+        <v>5146</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>18943</v>
+        <v>18717</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.002651606734617193</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.001349811907509608</v>
+        <v>0.001329990548740139</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.004896220599589186</v>
+        <v>0.004837626923827655</v>
       </c>
     </row>
     <row r="42">
@@ -6516,7 +6516,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>5385</v>
+        <v>4502</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.0005232854504620866</v>
@@ -6525,7 +6525,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.003141392949415003</v>
+        <v>0.00262656318925084</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>0</v>
@@ -6550,7 +6550,7 @@
         <v>0</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>4485</v>
+        <v>4499</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.000231834884796109</v>
@@ -6559,7 +6559,7 @@
         <v>0</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.001159262747868074</v>
+        <v>0.001162937038349853</v>
       </c>
     </row>
     <row r="43">
@@ -6576,19 +6576,19 @@
         <v>66656</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>50995</v>
+        <v>51843</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>84597</v>
+        <v>83948</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.038886803674856</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.0297502301773872</v>
+        <v>0.03024485097109645</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.04935347888395053</v>
+        <v>0.04897458184776279</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>94</v>
@@ -6597,19 +6597,19 @@
         <v>103976</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>85348</v>
+        <v>84069</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>126202</v>
+        <v>126070</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.04825131188646444</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.03960650034923184</v>
+        <v>0.03901329260109578</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.05856564427911491</v>
+        <v>0.05850429705878898</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>159</v>
@@ -6618,19 +6618,19 @@
         <v>170632</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>145829</v>
+        <v>147215</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>198782</v>
+        <v>198135</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.04410248703285281</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.0376917868980812</v>
+        <v>0.03804989825746797</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.05137816845582942</v>
+        <v>0.05121100925366085</v>
       </c>
     </row>
     <row r="44">
@@ -6647,19 +6647,19 @@
         <v>48779</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>35750</v>
+        <v>35834</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>64915</v>
+        <v>68030</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.02845759817648445</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.02085611455787682</v>
+        <v>0.0209051199078026</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.0378706857339504</v>
+        <v>0.03968851757377511</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>26</v>
@@ -6668,19 +6668,19 @@
         <v>30025</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>20471</v>
+        <v>19596</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>43797</v>
+        <v>44059</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.01393361263033038</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.009499978037752498</v>
+        <v>0.009093877546928667</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.02032446103847162</v>
+        <v>0.0204459047469855</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>67</v>
@@ -6689,19 +6689,19 @@
         <v>78805</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>61293</v>
+        <v>60748</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>100856</v>
+        <v>98952</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.02036827752097393</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.01584205060336345</v>
+        <v>0.01570111356963493</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.02606769581878628</v>
+        <v>0.02557555672124433</v>
       </c>
     </row>
     <row r="45">
@@ -6718,19 +6718,19 @@
         <v>60155</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>46355</v>
+        <v>46292</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>78440</v>
+        <v>77062</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.03509384205012124</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.02704307300692875</v>
+        <v>0.02700656225606586</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.04576145995011166</v>
+        <v>0.04495747171982961</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>71</v>
@@ -6739,19 +6739,19 @@
         <v>75281</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>58569</v>
+        <v>58002</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>93580</v>
+        <v>94534</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.03493486634176933</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.02717966184179925</v>
+        <v>0.02691647964672785</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.04342691520653546</v>
+        <v>0.04386972255965833</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>130</v>
@@ -6760,19 +6760,19 @@
         <v>135435</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>114619</v>
+        <v>113457</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>162395</v>
+        <v>157728</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.03500529848353555</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.02962502704031328</v>
+        <v>0.02932468903971212</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.04197349551837656</v>
+        <v>0.04076725165116838</v>
       </c>
     </row>
     <row r="46">
@@ -6789,19 +6789,19 @@
         <v>20557</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>12979</v>
+        <v>12532</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>31306</v>
+        <v>30038</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.01199257124633393</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.007571907369696458</v>
+        <v>0.007311141231002954</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.01826366790724894</v>
+        <v>0.01752375202075454</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>56</v>
@@ -6810,19 +6810,19 @@
         <v>58641</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>44267</v>
+        <v>44947</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>75022</v>
+        <v>75587</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.02721281843757488</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.02054237152036164</v>
+        <v>0.02085803962713555</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.03481492681871899</v>
+        <v>0.03507718009018256</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>77</v>
@@ -6831,19 +6831,19 @@
         <v>79197</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>62812</v>
+        <v>62770</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>97772</v>
+        <v>97469</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.0204696837850946</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.0162346714092352</v>
+        <v>0.0162237608682045</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.02527053124376294</v>
+        <v>0.02519225065701535</v>
       </c>
     </row>
     <row r="47">
@@ -6860,19 +6860,19 @@
         <v>1506102</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>1476050</v>
+        <v>1476743</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>1532946</v>
+        <v>1533088</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.8786493428566536</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.8611176634317474</v>
+        <v>0.8615216086847522</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.8943101319209342</v>
+        <v>0.8943929068529002</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>1732</v>
@@ -6881,19 +6881,19 @@
         <v>1876942</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>1844739</v>
+        <v>1844220</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>1908295</v>
+        <v>1907986</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.8710155210676853</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.8560716868775126</v>
+        <v>0.8558308037481579</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.8855652991700477</v>
+        <v>0.8854219011164413</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>3112</v>
@@ -6902,19 +6902,19 @@
         <v>3383043</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>3339466</v>
+        <v>3343071</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>3426227</v>
+        <v>3426905</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.874397587573522</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.8631344641900899</v>
+        <v>0.86406616179825</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.8855589264087576</v>
+        <v>0.8857342609958392</v>
       </c>
     </row>
     <row r="48">
@@ -7293,19 +7293,19 @@
         <v>4277</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1014</v>
+        <v>1023</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>11084</v>
+        <v>11699</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.006899381015748612</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.001635608325795112</v>
+        <v>0.001650364227486327</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01788053709481113</v>
+        <v>0.01887246878709818</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>2</v>
@@ -7317,7 +7317,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>6891</v>
+        <v>6832</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.002505336844826778</v>
@@ -7326,7 +7326,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.008819883163395124</v>
+        <v>0.008743459137169483</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>6</v>
@@ -7335,19 +7335,19 @@
         <v>6235</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2647</v>
+        <v>2834</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>13574</v>
+        <v>12483</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.004449229778036782</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.001888740026743773</v>
+        <v>0.002022792385336197</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.009686789166677135</v>
+        <v>0.008908768698260091</v>
       </c>
     </row>
     <row r="6">
@@ -7411,19 +7411,19 @@
         <v>14919</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8533</v>
+        <v>7954</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>25448</v>
+        <v>24453</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02406658577870101</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01376539623640924</v>
+        <v>0.01283069646377901</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04105156998460647</v>
+        <v>0.03944559034080646</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>20</v>
@@ -7432,19 +7432,19 @@
         <v>20381</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>13009</v>
+        <v>12496</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>31879</v>
+        <v>31081</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02608366657051117</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01664973589228545</v>
+        <v>0.01599242328867957</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0407994842211648</v>
+        <v>0.03977795342478802</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>33</v>
@@ -7453,19 +7453,19 @@
         <v>35300</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>25241</v>
+        <v>24888</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>48936</v>
+        <v>49728</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02519132481326142</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01801332524123489</v>
+        <v>0.01776094479521426</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03492315972171724</v>
+        <v>0.03548838815599067</v>
       </c>
     </row>
     <row r="8">
@@ -7482,19 +7482,19 @@
         <v>10964</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>4922</v>
+        <v>5107</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>20045</v>
+        <v>19277</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01768624408791443</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.007940356907885205</v>
+        <v>0.008238535760572836</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.03233625186987534</v>
+        <v>0.0310967647584399</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>12</v>
@@ -7503,19 +7503,19 @@
         <v>11942</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>6198</v>
+        <v>6186</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>20583</v>
+        <v>20652</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.0152842541261951</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.007932305726392799</v>
+        <v>0.007916964340284896</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02634264092604292</v>
+        <v>0.02643140438464808</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>21</v>
@@ -7524,19 +7524,19 @@
         <v>22906</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>14457</v>
+        <v>14302</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>34203</v>
+        <v>35233</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01634687687885806</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01031731698304383</v>
+        <v>0.01020654320108676</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02440911746685576</v>
+        <v>0.02514361596993965</v>
       </c>
     </row>
     <row r="9">
@@ -7553,19 +7553,19 @@
         <v>11969</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>6333</v>
+        <v>6075</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>20484</v>
+        <v>20345</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01930766770573309</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01021526383174413</v>
+        <v>0.009800464012278106</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.03304332047349247</v>
+        <v>0.03281942301489265</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>13</v>
@@ -7574,19 +7574,19 @@
         <v>13389</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>7051</v>
+        <v>7628</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>22371</v>
+        <v>23670</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01713544072876777</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.009024731183433287</v>
+        <v>0.009762206743249773</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.02863051972581444</v>
+        <v>0.03029417202463572</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>24</v>
@@ -7595,19 +7595,19 @@
         <v>25358</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>16859</v>
+        <v>16224</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>38056</v>
+        <v>37443</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01809641802112056</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01203164636301842</v>
+        <v>0.01157842348992163</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.0271582184824042</v>
+        <v>0.02672090812652127</v>
       </c>
     </row>
     <row r="10">
@@ -7624,19 +7624,19 @@
         <v>3385</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>974</v>
+        <v>967</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9459</v>
+        <v>9621</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.005459869203752092</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001571001397758146</v>
+        <v>0.001560671667781096</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01525912663481623</v>
+        <v>0.01551970701273321</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>8</v>
@@ -7645,19 +7645,19 @@
         <v>7778</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3747</v>
+        <v>3438</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>14828</v>
+        <v>14927</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.009954014104544341</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.004794906005130698</v>
+        <v>0.004400258958887729</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01897730288636607</v>
+        <v>0.01910381753623184</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>11</v>
@@ -7666,19 +7666,19 @@
         <v>11162</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>5962</v>
+        <v>5805</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>19924</v>
+        <v>19315</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.007965837342170318</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.004254766290673329</v>
+        <v>0.004142420834986347</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01421900773785229</v>
+        <v>0.01378425273017642</v>
       </c>
     </row>
     <row r="11">
@@ -7695,19 +7695,19 @@
         <v>574393</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>560525</v>
+        <v>557949</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>587268</v>
+        <v>586097</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9265802522081508</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9042091203670058</v>
+        <v>0.9000537349303418</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9473494199753195</v>
+        <v>0.9454608873554416</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>651</v>
@@ -7716,19 +7716,19 @@
         <v>725905</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>709716</v>
+        <v>711020</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>738732</v>
+        <v>739882</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9290372876251548</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9083183156184235</v>
+        <v>0.9099872179161762</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9454529681813466</v>
+        <v>0.9469249865314704</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1201</v>
@@ -7737,19 +7737,19 @@
         <v>1300298</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1279537</v>
+        <v>1280676</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1319048</v>
+        <v>1320242</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9279503131665529</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9131344997560986</v>
+        <v>0.9139470265124927</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.941331233855391</v>
+        <v>0.9421833673932904</v>
       </c>
     </row>
     <row r="12">
@@ -7901,19 +7901,19 @@
         <v>3146</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>8636</v>
+        <v>8287</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.005205173253821222</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.001628509946482491</v>
+        <v>0.001626429116775162</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01428877466374637</v>
+        <v>0.01371102627309401</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>3</v>
@@ -7922,19 +7922,19 @@
         <v>3146</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>978</v>
+        <v>399</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>8353</v>
+        <v>8338</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.00293267643931254</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0009112928639273264</v>
+        <v>0.0003722995029804702</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.007786676903689795</v>
+        <v>0.007772264003010535</v>
       </c>
     </row>
     <row r="15">
@@ -7998,19 +7998,19 @@
         <v>8880</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4228</v>
+        <v>4055</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>18853</v>
+        <v>16890</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0189598885803718</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.009027279783861922</v>
+        <v>0.00865791325463409</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04025349209567557</v>
+        <v>0.03606141700551235</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>11</v>
@@ -8019,19 +8019,19 @@
         <v>11235</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5668</v>
+        <v>5773</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>19317</v>
+        <v>19209</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01858891100347394</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.009377925931166552</v>
+        <v>0.009551698875484991</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03196025058005549</v>
+        <v>0.03178184705898519</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>19</v>
@@ -8040,19 +8040,19 @@
         <v>20115</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>12169</v>
+        <v>12284</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>30977</v>
+        <v>31173</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01875087398158146</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01134381505902201</v>
+        <v>0.01145113150735758</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02887538357971997</v>
+        <v>0.0290584625510289</v>
       </c>
     </row>
     <row r="17">
@@ -8069,19 +8069,19 @@
         <v>6518</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2402</v>
+        <v>2219</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>14168</v>
+        <v>12735</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01391735948324673</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.005128950420753215</v>
+        <v>0.004738105485086459</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03025040189334099</v>
+        <v>0.0271903116808407</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>7</v>
@@ -8090,19 +8090,19 @@
         <v>7589</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3047</v>
+        <v>3013</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>15143</v>
+        <v>14161</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01255519975674573</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.005040431195040383</v>
+        <v>0.004985613030277531</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.02505462462064565</v>
+        <v>0.02342992040687199</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>13</v>
@@ -8111,19 +8111,19 @@
         <v>14107</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>7623</v>
+        <v>7903</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>23234</v>
+        <v>23820</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01314989727945606</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.007106022355277907</v>
+        <v>0.007367268666707897</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02165783373872075</v>
+        <v>0.02220389432343801</v>
       </c>
     </row>
     <row r="18">
@@ -8140,19 +8140,19 @@
         <v>16605</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>9946</v>
+        <v>9694</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>26968</v>
+        <v>25985</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.0354536010335092</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02123615856227885</v>
+        <v>0.02069887772196345</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.05757949242367398</v>
+        <v>0.05548245509023614</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>17</v>
@@ -8161,19 +8161,19 @@
         <v>16837</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>9944</v>
+        <v>10243</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>26409</v>
+        <v>26323</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.02785721107965586</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01645271462660691</v>
+        <v>0.01694721843017462</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.04369279468995385</v>
+        <v>0.04355126525740105</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>33</v>
@@ -8182,19 +8182,19 @@
         <v>33442</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>23869</v>
+        <v>24063</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>46881</v>
+        <v>47265</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.03117367551419212</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.0222498040262634</v>
+        <v>0.02243063077283691</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.04370094566674088</v>
+        <v>0.04405845605324338</v>
       </c>
     </row>
     <row r="19">
@@ -8211,19 +8211,19 @@
         <v>4001</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1026</v>
+        <v>1017</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>9190</v>
+        <v>9793</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.008541920642192946</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.002191188874535708</v>
+        <v>0.002171773640040946</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01962269555001226</v>
+        <v>0.02091017776787744</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>14</v>
@@ -8232,19 +8232,19 @@
         <v>13808</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>8107</v>
+        <v>7760</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>23027</v>
+        <v>22210</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0228449405395226</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01341295010741267</v>
+        <v>0.01283905752299268</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03809854333779917</v>
+        <v>0.03674554387237373</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>18</v>
@@ -8253,19 +8253,19 @@
         <v>17809</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>10545</v>
+        <v>11119</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>26518</v>
+        <v>27747</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01660046690347708</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.009830126915234095</v>
+        <v>0.01036496463198041</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02471868929847294</v>
+        <v>0.02586437951132849</v>
       </c>
     </row>
     <row r="20">
@@ -8282,19 +8282,19 @@
         <v>432351</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>416699</v>
+        <v>419238</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>442453</v>
+        <v>442774</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9231272302606793</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8897079082664965</v>
+        <v>0.8951285890138986</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9446950955692256</v>
+        <v>0.945382132934555</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>498</v>
@@ -8303,19 +8303,19 @@
         <v>551802</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>535528</v>
+        <v>537754</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>562602</v>
+        <v>565820</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9129485643667806</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8860242697622737</v>
+        <v>0.8897069461633305</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9308177920374662</v>
+        <v>0.9361412186125283</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>923</v>
@@ -8324,19 +8324,19 @@
         <v>984153</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>964317</v>
+        <v>964162</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1000008</v>
+        <v>1001984</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9173924098819808</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8989025025604733</v>
+        <v>0.8987573918209452</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9321721397550747</v>
+        <v>0.9340137186447857</v>
       </c>
     </row>
     <row r="21">
@@ -8525,7 +8525,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4899</v>
+        <v>4933</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.002377831060816577</v>
@@ -8534,7 +8534,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.01195775750450548</v>
+        <v>0.01203958697952063</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>0</v>
@@ -8559,7 +8559,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>5431</v>
+        <v>4889</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.001132377001425951</v>
@@ -8568,7 +8568,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.006312664360898231</v>
+        <v>0.005682700443644864</v>
       </c>
     </row>
     <row r="25">
@@ -8585,19 +8585,19 @@
         <v>5174</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2037</v>
+        <v>2031</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>11495</v>
+        <v>11368</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01262756807478801</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.004971506562001412</v>
+        <v>0.004956079285754761</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02805518117357076</v>
+        <v>0.02774491270956964</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>9</v>
@@ -8606,19 +8606,19 @@
         <v>9700</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>4919</v>
+        <v>4897</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>18099</v>
+        <v>17399</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02152457434690513</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01091550649417762</v>
+        <v>0.01086773614778268</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04016193242328388</v>
+        <v>0.03860939974893442</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>14</v>
@@ -8627,19 +8627,19 @@
         <v>14874</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>8656</v>
+        <v>8139</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>24564</v>
+        <v>24922</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01728761847139896</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01006017107191605</v>
+        <v>0.009459661022419529</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0285505203404691</v>
+        <v>0.02896673069094551</v>
       </c>
     </row>
     <row r="26">
@@ -8656,19 +8656,19 @@
         <v>5704</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2186</v>
+        <v>2153</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>12811</v>
+        <v>12610</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01392163422917724</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.005335205660478569</v>
+        <v>0.005254133384979972</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03126644011424855</v>
+        <v>0.03077703861755756</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1</v>
@@ -8680,7 +8680,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>5741</v>
+        <v>5060</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.002228610968587723</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01273883587719577</v>
+        <v>0.01122781020997402</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6</v>
@@ -8698,19 +8698,19 @@
         <v>6708</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2358</v>
+        <v>2712</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>14401</v>
+        <v>15020</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.007797093454842721</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.002740277288201632</v>
+        <v>0.00315221202917305</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01673804628574906</v>
+        <v>0.0174577687430002</v>
       </c>
     </row>
     <row r="27">
@@ -8727,19 +8727,19 @@
         <v>18064</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>10988</v>
+        <v>10651</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>30665</v>
+        <v>28702</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.0440874845271264</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.02681809260922317</v>
+        <v>0.02599579815026654</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.07484236490424974</v>
+        <v>0.07005135429883126</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>10</v>
@@ -8748,19 +8748,19 @@
         <v>9899</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>4803</v>
+        <v>4821</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>17232</v>
+        <v>17302</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.02196664988463516</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.0106580550114102</v>
+        <v>0.01069762327350698</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.0382374478175919</v>
+        <v>0.03839310239264453</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>26</v>
@@ -8769,19 +8769,19 @@
         <v>27963</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>19479</v>
+        <v>19605</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>40361</v>
+        <v>40985</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.03250109230751332</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.02263980752160102</v>
+        <v>0.02278650679716055</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.04691089036738486</v>
+        <v>0.0476367757762516</v>
       </c>
     </row>
     <row r="28">
@@ -8801,7 +8801,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>5404</v>
+        <v>5372</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.002616127170163481</v>
@@ -8810,7 +8810,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01318805456920708</v>
+        <v>0.01311087666309463</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>16</v>
@@ -8819,19 +8819,19 @@
         <v>15116</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>8623</v>
+        <v>8602</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>23423</v>
+        <v>23750</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.0335423307826154</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01913569052584212</v>
+        <v>0.0190882390107383</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.05197552211911209</v>
+        <v>0.05270206517887836</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>17</v>
@@ -8840,19 +8840,19 @@
         <v>16188</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>9930</v>
+        <v>9690</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>25026</v>
+        <v>25030</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01881457224280965</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01154115709823151</v>
+        <v>0.01126217668551114</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02908760146388217</v>
+        <v>0.0290919220425034</v>
       </c>
     </row>
     <row r="29">
@@ -8869,19 +8869,19 @@
         <v>378742</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>364479</v>
+        <v>364992</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>387837</v>
+        <v>388246</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9243693549379283</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8895582429631517</v>
+        <v>0.8908111628385044</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.946567257883257</v>
+        <v>0.9475656487416472</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>370</v>
@@ -8890,19 +8890,19 @@
         <v>414926</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>402478</v>
+        <v>402521</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>424181</v>
+        <v>424891</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9207378340172566</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8931157734699726</v>
+        <v>0.8932108846926672</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9412755537422822</v>
+        <v>0.9428507776683807</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>737</v>
@@ -8911,19 +8911,19 @@
         <v>793668</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>776864</v>
+        <v>776761</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>807780</v>
+        <v>808370</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9224672465220094</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.902936289387873</v>
+        <v>0.9028169727670312</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.938869950742163</v>
+        <v>0.939555242624118</v>
       </c>
     </row>
     <row r="30">
@@ -9159,7 +9159,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>6738</v>
+        <v>6606</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.00730071696782599</v>
@@ -9168,7 +9168,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.02282235241462457</v>
+        <v>0.02237516613046866</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>6</v>
@@ -9177,19 +9177,19 @@
         <v>6333</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>2612</v>
+        <v>2183</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>14175</v>
+        <v>14096</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.02119360997231706</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.008740076108536258</v>
+        <v>0.007306106782974026</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.04743483469981757</v>
+        <v>0.04717024876644144</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>8</v>
@@ -9198,19 +9198,19 @@
         <v>8489</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>3946</v>
+        <v>4062</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>16220</v>
+        <v>16165</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.01428914356238003</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.006642020091814191</v>
+        <v>0.006836992030459989</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.02730313597847672</v>
+        <v>0.02721089631121129</v>
       </c>
     </row>
     <row r="35">
@@ -9227,19 +9227,19 @@
         <v>5887</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>2001</v>
+        <v>2197</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>13392</v>
+        <v>14313</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.01993804445533951</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.006776248609665241</v>
+        <v>0.007440398835962156</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.04536051970424274</v>
+        <v>0.04847893125184685</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>4</v>
@@ -9248,19 +9248,19 @@
         <v>4973</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>1511</v>
+        <v>1503</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>11915</v>
+        <v>12487</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.01664023363714633</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.00505724456515321</v>
+        <v>0.005028109355903284</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.03987009789391478</v>
+        <v>0.04178590633461327</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>9</v>
@@ -9269,19 +9269,19 @@
         <v>10859</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>5061</v>
+        <v>5159</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>20155</v>
+        <v>20907</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.01827917406612546</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.008518937494919117</v>
+        <v>0.00868397795055283</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.03392656094331146</v>
+        <v>0.03519174537035855</v>
       </c>
     </row>
     <row r="36">
@@ -9298,19 +9298,19 @@
         <v>8124</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>3137</v>
+        <v>3400</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>15969</v>
+        <v>16771</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.02751758745275755</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.01062526786970946</v>
+        <v>0.01151728153398285</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.05408670494955167</v>
+        <v>0.05680390231827539</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>10</v>
@@ -9319,19 +9319,19 @@
         <v>10447</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>5554</v>
+        <v>5151</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>18625</v>
+        <v>20151</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.03496055685390201</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.01858398746493758</v>
+        <v>0.01723827601000499</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.06232702969393734</v>
+        <v>0.06743329964678893</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>17</v>
@@ -9340,19 +9340,19 @@
         <v>18572</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>10818</v>
+        <v>11584</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>29124</v>
+        <v>28789</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.03126156254049452</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.01820963915477021</v>
+        <v>0.01949824609956729</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.04902337959491566</v>
+        <v>0.04845912842850759</v>
       </c>
     </row>
     <row r="37">
@@ -9369,19 +9369,19 @@
         <v>5443</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>1309</v>
+        <v>1332</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>12259</v>
+        <v>12875</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.01843640341399709</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.004434091697934403</v>
+        <v>0.004511530643506276</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.04152216311826955</v>
+        <v>0.04360798811201466</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>11</v>
@@ -9390,19 +9390,19 @@
         <v>11050</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>6133</v>
+        <v>5753</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>20158</v>
+        <v>19405</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.03697730779788622</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.02052248497828877</v>
+        <v>0.01925215782506082</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.06745445414539714</v>
+        <v>0.06493609619541096</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>15</v>
@@ -9411,19 +9411,19 @@
         <v>16493</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>9544</v>
+        <v>9559</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>28200</v>
+        <v>26708</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.02776288057333089</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.01606488265529294</v>
+        <v>0.01609018248227488</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.04746906311281826</v>
+        <v>0.04495638293131501</v>
       </c>
     </row>
     <row r="38">
@@ -9440,19 +9440,19 @@
         <v>273635</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>263622</v>
+        <v>262085</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>282465</v>
+        <v>282565</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.9268072477100798</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.8928938590430813</v>
+        <v>0.8876878266299744</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.9567124649025217</v>
+        <v>0.9570531510733061</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>237</v>
@@ -9461,19 +9461,19 @@
         <v>266031</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>253163</v>
+        <v>253289</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>276077</v>
+        <v>276142</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.8902282917387484</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.847167982021225</v>
+        <v>0.8475877880115373</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.9238454592209852</v>
+        <v>0.9240607217613221</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>495</v>
@@ -9482,19 +9482,19 @@
         <v>539667</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>522476</v>
+        <v>523545</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>553028</v>
+        <v>553665</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.9084072392576691</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.8794707978220377</v>
+        <v>0.8812709597780705</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.9308983177337392</v>
+        <v>0.9319709793807269</v>
       </c>
     </row>
     <row r="39">
@@ -9633,19 +9633,19 @@
         <v>4277</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>9675</v>
+        <v>12381</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.002385055175314705</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.0005664910899778292</v>
+        <v>0.000566083801183878</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.005395025277522065</v>
+        <v>0.006904263771847974</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>5</v>
@@ -9654,19 +9654,19 @@
         <v>5104</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>1966</v>
+        <v>1960</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>10825</v>
+        <v>12111</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.002390186602706464</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.0009206398916632326</v>
+        <v>0.0009180009505132313</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.005069507781565382</v>
+        <v>0.005671828935788769</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>9</v>
@@ -9675,19 +9675,19 @@
         <v>9381</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>4357</v>
+        <v>4491</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>16759</v>
+        <v>17872</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.002387844258658977</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.001108964505685078</v>
+        <v>0.001143267859120519</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.0042659593744269</v>
+        <v>0.004549380809610874</v>
       </c>
     </row>
     <row r="42">
@@ -9707,7 +9707,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>4455</v>
+        <v>4881</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.0005433018650829696</v>
@@ -9716,7 +9716,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.002484609361917903</v>
+        <v>0.002721724818952816</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>0</v>
@@ -9741,7 +9741,7 @@
         <v>0</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>5147</v>
+        <v>5178</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.00024800114909729</v>
@@ -9750,7 +9750,7 @@
         <v>0</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.001310201002205866</v>
+        <v>0.001318034349039745</v>
       </c>
     </row>
     <row r="43">
@@ -9767,19 +9767,19 @@
         <v>31128</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>20938</v>
+        <v>21074</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>44657</v>
+        <v>44258</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.01735877127392854</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.01167593030515745</v>
+        <v>0.01175173349099948</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.02490275684579496</v>
+        <v>0.02468042038877356</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>46</v>
@@ -9788,19 +9788,19 @@
         <v>47649</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>35304</v>
+        <v>34567</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>63598</v>
+        <v>64066</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.02231557640540127</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.01653369384500842</v>
+        <v>0.016188769130036</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.02978471137910588</v>
+        <v>0.0300041468282272</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>74</v>
@@ -9809,19 +9809,19 @@
         <v>78778</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>63579</v>
+        <v>61488</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>98148</v>
+        <v>98230</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.02005294222823192</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.01618415152274359</v>
+        <v>0.01565186108827219</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.02498355464056028</v>
+        <v>0.02500462006067094</v>
       </c>
     </row>
     <row r="44">
@@ -9838,19 +9838,19 @@
         <v>29073</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>18805</v>
+        <v>19115</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>41799</v>
+        <v>42828</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.01621247409328784</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.01048684839174768</v>
+        <v>0.0106595071705607</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.02330944191376036</v>
+        <v>0.02388324166584069</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>24</v>
@@ -9859,19 +9859,19 @@
         <v>25508</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>16804</v>
+        <v>16867</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>37263</v>
+        <v>37485</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.01194612706188548</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.007869773741566279</v>
+        <v>0.007899514978879824</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.01745118659610672</v>
+        <v>0.01755545693558899</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>49</v>
@@ -9880,19 +9880,19 @@
         <v>54581</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>42044</v>
+        <v>42591</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>72107</v>
+        <v>73782</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.01389358764362675</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.01070237646748255</v>
+        <v>0.01084148412618058</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.01835485124227711</v>
+        <v>0.0187812333671204</v>
       </c>
     </row>
     <row r="45">
@@ -9909,19 +9909,19 @@
         <v>54762</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>40832</v>
+        <v>40875</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>71700</v>
+        <v>72578</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.03053820405454033</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.02276982141097842</v>
+        <v>0.02279423380780962</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.03998372541729067</v>
+        <v>0.04047293241678646</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>50</v>
@@ -9930,19 +9930,19 @@
         <v>50573</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>37317</v>
+        <v>38308</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>65408</v>
+        <v>66476</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.02368472600209788</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.01747667694497083</v>
+        <v>0.01794061132614062</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.03063244297170855</v>
+        <v>0.03113250164303108</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>100</v>
@@ -9951,19 +9951,19 @@
         <v>105335</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>86599</v>
+        <v>86559</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>128162</v>
+        <v>127184</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.02681313497978328</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.02204386999713117</v>
+        <v>0.02203363986919037</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.03262376813035539</v>
+        <v>0.0323747643287965</v>
       </c>
     </row>
     <row r="46">
@@ -9980,19 +9980,19 @@
         <v>13900</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>6826</v>
+        <v>7557</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>22671</v>
+        <v>24267</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.007751583938197713</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.003806466804552793</v>
+        <v>0.004214437945889416</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.01264266177084684</v>
+        <v>0.01353265565465349</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>49</v>
@@ -10001,19 +10001,19 @@
         <v>47751</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>35691</v>
+        <v>35703</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>62954</v>
+        <v>62915</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.02236332463594721</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.01671502651822578</v>
+        <v>0.01672087029509181</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.02948314363645875</v>
+        <v>0.02946483070107081</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>61</v>
@@ -10022,19 +10022,19 @@
         <v>61652</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>48311</v>
+        <v>47855</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>78628</v>
+        <v>79038</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.01569349941309412</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.01229758189212361</v>
+        <v>0.01218165852700771</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.02001477924622519</v>
+        <v>0.02011909700433014</v>
       </c>
     </row>
     <row r="47">
@@ -10051,19 +10051,19 @@
         <v>1659122</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>1633528</v>
+        <v>1633580</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>1680233</v>
+        <v>1681261</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.925210609599648</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.91093817395535</v>
+        <v>0.9109668845747466</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.9369833452093537</v>
+        <v>0.9375567422732378</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>1756</v>
@@ -10072,19 +10072,19 @@
         <v>1958664</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>1933451</v>
+        <v>1930628</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>1985898</v>
+        <v>1982594</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.9173000592919617</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.9054922716261794</v>
+        <v>0.9041699230834708</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.9300543150077238</v>
+        <v>0.9285073087852705</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>3356</v>
@@ -10093,19 +10093,19 @@
         <v>3617786</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>3583263</v>
+        <v>3584884</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>3648964</v>
+        <v>3652142</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.9209109903275077</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.912123092443376</v>
+        <v>0.912535889731485</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.9288473695990027</v>
+        <v>0.9296564034567514</v>
       </c>
     </row>
     <row r="48">
@@ -10437,19 +10437,19 @@
         <v>20823</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>12377</v>
+        <v>11971</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>33187</v>
+        <v>32589</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1082948062003946</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06436874634903571</v>
+        <v>0.06225832569203617</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1725970481067527</v>
+        <v>0.1694856152452957</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>22</v>
@@ -10458,19 +10458,19 @@
         <v>18125</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>11635</v>
+        <v>11658</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>27340</v>
+        <v>26348</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07139547236923759</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04582928357981142</v>
+        <v>0.04591945663042613</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1076919693937693</v>
+        <v>0.1037838881877787</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>38</v>
@@ -10479,19 +10479,19 @@
         <v>38948</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>27977</v>
+        <v>26917</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>52319</v>
+        <v>52737</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.08729825703156362</v>
+        <v>0.0872982570315636</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06270780245834544</v>
+        <v>0.06033148224245505</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1172678806208806</v>
+        <v>0.1182055624318104</v>
       </c>
     </row>
     <row r="5">
@@ -10605,7 +10605,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8781</v>
+        <v>8004</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01350202815637411</v>
@@ -10614,7 +10614,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04566637787603951</v>
+        <v>0.04162808919082312</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -10623,19 +10623,19 @@
         <v>2396</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>7337</v>
+        <v>7567</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.009435969988312583</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.00165692516218341</v>
+        <v>0.001640674958676433</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02890036132580272</v>
+        <v>0.02980617838397301</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>5</v>
@@ -10644,19 +10644,19 @@
         <v>4992</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1548</v>
+        <v>1614</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>12292</v>
+        <v>11512</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01118834979459991</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.003469370935237442</v>
+        <v>0.003617717667554185</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0275502470806207</v>
+        <v>0.0258033242723251</v>
       </c>
     </row>
     <row r="8">
@@ -10673,19 +10673,19 @@
         <v>9850</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>4938</v>
+        <v>5297</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>17813</v>
+        <v>18044</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.05122951174394705</v>
+        <v>0.05122951174394704</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02567921418503279</v>
+        <v>0.02755046467644898</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.09264351138176011</v>
+        <v>0.09384174889622596</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>16</v>
@@ -10694,19 +10694,19 @@
         <v>16079</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>9560</v>
+        <v>9099</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>25301</v>
+        <v>25767</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.06333444387135688</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.03765738246616226</v>
+        <v>0.03584216808935149</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.09966247502944132</v>
+        <v>0.1014959616379672</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>26</v>
@@ -10715,19 +10715,19 @@
         <v>25929</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>17263</v>
+        <v>17625</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>37600</v>
+        <v>36907</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.05811748982402593</v>
+        <v>0.05811748982402594</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.03869397522829993</v>
+        <v>0.03950439859684617</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.08427632966498987</v>
+        <v>0.08272431075480631</v>
       </c>
     </row>
     <row r="9">
@@ -10744,19 +10744,19 @@
         <v>5590</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1922</v>
+        <v>1595</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>13487</v>
+        <v>13297</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.0290731345828178</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.009996912970323206</v>
+        <v>0.008295269700117886</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.07014193281711462</v>
+        <v>0.0691561694671443</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>7</v>
@@ -10765,19 +10765,19 @@
         <v>4976</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>2305</v>
+        <v>2140</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>9749</v>
+        <v>10154</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.01959874919585197</v>
+        <v>0.01959874919585196</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.00907993239409597</v>
+        <v>0.008431233061549788</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.03840061169970043</v>
+        <v>0.03999659220125344</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>12</v>
@@ -10786,19 +10786,19 @@
         <v>10566</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>5330</v>
+        <v>5576</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>18059</v>
+        <v>18071</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02368199664162521</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01194567523253409</v>
+        <v>0.01249767351164646</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.04047778266650854</v>
+        <v>0.04050409013977681</v>
       </c>
     </row>
     <row r="10">
@@ -10828,19 +10828,19 @@
         <v>4255</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>868</v>
+        <v>897</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>10629</v>
+        <v>10727</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01676014194880139</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.003420940110381602</v>
+        <v>0.003532393844398444</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04186728361275746</v>
+        <v>0.04225428848008263</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>4</v>
@@ -10849,19 +10849,19 @@
         <v>4255</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1662</v>
+        <v>1646</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>11706</v>
+        <v>11770</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.00953689695631996</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.003724533552835114</v>
+        <v>0.003688927405662129</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02623695429643279</v>
+        <v>0.02638210100280577</v>
       </c>
     </row>
     <row r="11">
@@ -10878,19 +10878,19 @@
         <v>153420</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>140580</v>
+        <v>140760</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>164946</v>
+        <v>164756</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7979005193164664</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7311197484456258</v>
+        <v>0.7320573102684137</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8578414726118466</v>
+        <v>0.8568525535360372</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>331</v>
@@ -10899,19 +10899,19 @@
         <v>208039</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>194011</v>
+        <v>195203</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>217588</v>
+        <v>218091</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8194752226264397</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7642171289778211</v>
+        <v>0.768911682568486</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8570893807265351</v>
+        <v>0.8590685057943791</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>505</v>
@@ -10920,19 +10920,19 @@
         <v>361460</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>343552</v>
+        <v>344379</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>377733</v>
+        <v>377231</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8101770097518654</v>
+        <v>0.8101770097518652</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7700386156026702</v>
+        <v>0.7718932643906178</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.846651783957258</v>
+        <v>0.845526641102437</v>
       </c>
     </row>
     <row r="12">
@@ -11024,19 +11024,19 @@
         <v>24953</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>16044</v>
+        <v>16136</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>38854</v>
+        <v>39096</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.07226768092603052</v>
+        <v>0.0722676809260305</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04646712437872684</v>
+        <v>0.04673188574303883</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1125261725091856</v>
+        <v>0.1132287607198355</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>42</v>
@@ -11045,19 +11045,19 @@
         <v>32950</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>24582</v>
+        <v>23888</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>42792</v>
+        <v>44088</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.07944772858297161</v>
+        <v>0.07944772858297162</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05927257457984986</v>
+        <v>0.05759895386214826</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1031789624779484</v>
+        <v>0.1063037384157452</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>60</v>
@@ -11066,19 +11066,19 @@
         <v>57903</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>44253</v>
+        <v>45028</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>74583</v>
+        <v>75886</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07618574535202288</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05822545732283867</v>
+        <v>0.05924574394124078</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09813285157459903</v>
+        <v>0.09984711276781338</v>
       </c>
     </row>
     <row r="14">
@@ -11145,16 +11145,16 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4519</v>
+        <v>4662</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.002664505167460272</v>
+        <v>0.002664505167460271</v>
       </c>
       <c r="H15" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.01308627119618389</v>
+        <v>0.01350115255136182</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>0</v>
@@ -11179,7 +11179,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>4697</v>
+        <v>4544</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.001210517198535493</v>
@@ -11188,7 +11188,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.006179705978929247</v>
+        <v>0.005978612690543603</v>
       </c>
     </row>
     <row r="16">
@@ -11208,16 +11208,16 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9527</v>
+        <v>9822</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.0086752373064286</v>
+        <v>0.008675237306428598</v>
       </c>
       <c r="H16" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02759204658830615</v>
+        <v>0.02844631592945464</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -11226,19 +11226,19 @@
         <v>4315</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1712</v>
+        <v>1621</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10463</v>
+        <v>10182</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01040387976414107</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.004128780186229023</v>
+        <v>0.003908559870240511</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02522823801514676</v>
+        <v>0.02455075483412177</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>8</v>
@@ -11247,19 +11247,19 @@
         <v>7310</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3137</v>
+        <v>3178</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>15734</v>
+        <v>16407</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.009618536410059995</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.004127430337968836</v>
+        <v>0.004181577719052032</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0207025889965582</v>
+        <v>0.02158706379505074</v>
       </c>
     </row>
     <row r="17">
@@ -11276,19 +11276,19 @@
         <v>13329</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>7522</v>
+        <v>7745</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>22158</v>
+        <v>21838</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.0386036329834482</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02178487920503778</v>
+        <v>0.02243072696231271</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.06417339422664309</v>
+        <v>0.06324752846259393</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>11</v>
@@ -11297,19 +11297,19 @@
         <v>7176</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3810</v>
+        <v>3827</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>12521</v>
+        <v>12297</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01730170222512034</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.009187665312172055</v>
+        <v>0.009227898831903017</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.03019122569811404</v>
+        <v>0.02965005615975803</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>24</v>
@@ -11318,19 +11318,19 @@
         <v>20505</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>13313</v>
+        <v>13419</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>29675</v>
+        <v>30669</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02697942920417773</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01751606084353455</v>
+        <v>0.01765640464419499</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.03904567003197675</v>
+        <v>0.04035241325299949</v>
       </c>
     </row>
     <row r="18">
@@ -11347,19 +11347,19 @@
         <v>14152</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8346</v>
+        <v>7931</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>22558</v>
+        <v>24686</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.04098725795997703</v>
+        <v>0.04098725795997702</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02417134503618043</v>
+        <v>0.02296932519079576</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.06533269007338023</v>
+        <v>0.0714949058505456</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>6</v>
@@ -11368,19 +11368,19 @@
         <v>4175</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>1441</v>
+        <v>1874</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>8381</v>
+        <v>9189</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.01006717176130962</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.003474193416959021</v>
+        <v>0.004518135653336225</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.02020792593591327</v>
+        <v>0.02215708253281195</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>19</v>
@@ -11389,19 +11389,19 @@
         <v>18328</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>11455</v>
+        <v>11524</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>28285</v>
+        <v>28894</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.02411454407673408</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01507245695134469</v>
+        <v>0.01516264965674053</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.03721627678002529</v>
+        <v>0.0380176084239537</v>
       </c>
     </row>
     <row r="19">
@@ -11421,7 +11421,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>4553</v>
+        <v>3914</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.002294645572622393</v>
@@ -11430,7 +11430,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01318701086673912</v>
+        <v>0.01133676138472442</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>5</v>
@@ -11439,19 +11439,19 @@
         <v>4145</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1321</v>
+        <v>1536</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>9613</v>
+        <v>9393</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.009993972455626115</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.003184894764376775</v>
+        <v>0.003704030009770417</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0231793104165137</v>
+        <v>0.02264896186933123</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>6</v>
@@ -11460,19 +11460,19 @@
         <v>4937</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2148</v>
+        <v>2178</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>10341</v>
+        <v>11007</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.006496074338240819</v>
+        <v>0.006496074338240818</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.002826149802856707</v>
+        <v>0.002865720316831798</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0136065421519269</v>
+        <v>0.01448198569008305</v>
       </c>
     </row>
     <row r="20">
@@ -11489,19 +11489,19 @@
         <v>288144</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>271569</v>
+        <v>271988</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>301220</v>
+        <v>301651</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.8345070400840331</v>
+        <v>0.834507040084033</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7865059404322847</v>
+        <v>0.7877189739066273</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8723769609351151</v>
+        <v>0.8736275172911374</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>624</v>
@@ -11510,19 +11510,19 @@
         <v>361973</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>350177</v>
+        <v>349399</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>373059</v>
+        <v>373608</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8727855452108313</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.84434303021878</v>
+        <v>0.8424665322510538</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8995152147660603</v>
+        <v>0.9008402860903734</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>999</v>
@@ -11531,19 +11531,19 @@
         <v>650117</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>629093</v>
+        <v>629907</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>668025</v>
+        <v>668137</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.8553951534202289</v>
+        <v>0.855395153420229</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8277323011303025</v>
+        <v>0.8288031922170082</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8789566213892932</v>
+        <v>0.8791043066532055</v>
       </c>
     </row>
     <row r="21">
@@ -11635,19 +11635,19 @@
         <v>19901</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>11666</v>
+        <v>12213</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>31196</v>
+        <v>31152</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.0473337810578175</v>
+        <v>0.04733378105781751</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02774786967817921</v>
+        <v>0.02904864386368678</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07419893770415115</v>
+        <v>0.07409390122205121</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>40</v>
@@ -11656,19 +11656,19 @@
         <v>29814</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>21597</v>
+        <v>20270</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>40826</v>
+        <v>39918</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.06567421384648911</v>
+        <v>0.06567421384648912</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04757252612354488</v>
+        <v>0.0446514085448067</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08993044295183</v>
+        <v>0.08792967859026704</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>57</v>
@@ -11677,19 +11677,19 @@
         <v>49715</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>37795</v>
+        <v>37389</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>65245</v>
+        <v>65697</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.05685563879679715</v>
+        <v>0.05685563879679714</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04322300597907135</v>
+        <v>0.04275894822299894</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07461551408367538</v>
+        <v>0.07513328876392537</v>
       </c>
     </row>
     <row r="23">
@@ -11769,7 +11769,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>3292</v>
+        <v>2977</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.001447018884483352</v>
@@ -11778,7 +11778,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.007251160426595571</v>
+        <v>0.00655714984983817</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1</v>
@@ -11790,16 +11790,16 @@
         <v>0</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>3707</v>
+        <v>4009</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.0007512531532068309</v>
+        <v>0.0007512531532068308</v>
       </c>
       <c r="V24" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.004239439866826707</v>
+        <v>0.004584952900414311</v>
       </c>
     </row>
     <row r="25">
@@ -11829,19 +11829,19 @@
         <v>2780</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>800</v>
+        <v>805</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>6678</v>
+        <v>6802</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.006124178024673884</v>
+        <v>0.006124178024673883</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.001762908501834355</v>
+        <v>0.001773077062110595</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01471020059785213</v>
+        <v>0.0149824228519544</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>4</v>
@@ -11850,19 +11850,19 @@
         <v>2780</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>824</v>
+        <v>802</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>6808</v>
+        <v>6833</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.003179507953331876</v>
+        <v>0.003179507953331875</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0009425805864866644</v>
+        <v>0.0009175253483407744</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.007785331702632592</v>
+        <v>0.007814227089319078</v>
       </c>
     </row>
     <row r="26">
@@ -11879,19 +11879,19 @@
         <v>8869</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>4427</v>
+        <v>4301</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>15940</v>
+        <v>15702</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02109362633391569</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.0105297490643228</v>
+        <v>0.01022985074504474</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03791247346781083</v>
+        <v>0.03734598406076604</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>19</v>
@@ -11900,19 +11900,19 @@
         <v>12337</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>7482</v>
+        <v>7104</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>18825</v>
+        <v>19635</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.02717547816855684</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01648121059195366</v>
+        <v>0.01564894139357418</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.0414682187469148</v>
+        <v>0.04325059259517436</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>29</v>
@@ -11921,19 +11921,19 @@
         <v>21206</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>14701</v>
+        <v>14358</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>31253</v>
+        <v>30456</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.02425115967166632</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01681235283677252</v>
+        <v>0.01641963772556135</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.0357422485880225</v>
+        <v>0.03483083112655926</v>
       </c>
     </row>
     <row r="27">
@@ -11950,19 +11950,19 @@
         <v>20003</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>12282</v>
+        <v>11798</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>33087</v>
+        <v>31084</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.04757708498079132</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.02921323687878149</v>
+        <v>0.02806076065674374</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.07869569938801821</v>
+        <v>0.0739328670727076</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>32</v>
@@ -11971,19 +11971,19 @@
         <v>26069</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>18696</v>
+        <v>18265</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>36650</v>
+        <v>36666</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.05742507956965989</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.04118345298005094</v>
+        <v>0.04023375195875616</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.08073158796745891</v>
+        <v>0.08076660738598244</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>50</v>
@@ -11992,19 +11992,19 @@
         <v>46073</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>33257</v>
+        <v>33586</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>58224</v>
+        <v>60494</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.05268989799725229</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.03803336342058285</v>
+        <v>0.03840997541234019</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.06658630283326457</v>
+        <v>0.06918266533855159</v>
       </c>
     </row>
     <row r="28">
@@ -12021,19 +12021,19 @@
         <v>3412</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>996</v>
+        <v>985</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>9845</v>
+        <v>9693</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.008116376430725511</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.002368022387002959</v>
+        <v>0.002342498464354633</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02341612187551032</v>
+        <v>0.02305474526279741</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>4</v>
@@ -12042,19 +12042,19 @@
         <v>4584</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>907</v>
+        <v>1098</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>11587</v>
+        <v>12111</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01009724766030456</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.001998924448420303</v>
+        <v>0.002418619777017509</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02552419537047293</v>
+        <v>0.02667841398752699</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>7</v>
@@ -12063,19 +12063,19 @@
         <v>7996</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3358</v>
+        <v>3218</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>16285</v>
+        <v>16608</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.009144791314094005</v>
+        <v>0.009144791314094007</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.003839907591975444</v>
+        <v>0.003680582546088022</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.0186239817186118</v>
+        <v>0.01899331530737299</v>
       </c>
     </row>
     <row r="29">
@@ -12092,19 +12092,19 @@
         <v>368255</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>351058</v>
+        <v>352643</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>380533</v>
+        <v>381379</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.87587913119675</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8349767293059918</v>
+        <v>0.8387447196417901</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9050813526763474</v>
+        <v>0.9070923197663259</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>639</v>
@@ -12113,19 +12113,19 @@
         <v>377730</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>363716</v>
+        <v>362125</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>391281</v>
+        <v>390665</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.8320567838458323</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8011874310501466</v>
+        <v>0.7976831866990607</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8619073868408276</v>
+        <v>0.8605503649101248</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1100</v>
@@ -12134,19 +12134,19 @@
         <v>745985</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>725315</v>
+        <v>725123</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>762776</v>
+        <v>765749</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.8531277511136516</v>
+        <v>0.8531277511136515</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8294886609624743</v>
+        <v>0.8292698296825446</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8723299923754292</v>
+        <v>0.8757302599964844</v>
       </c>
     </row>
     <row r="30">
@@ -12238,19 +12238,19 @@
         <v>39733</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>28591</v>
+        <v>26941</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>54625</v>
+        <v>53641</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.08760981569362736</v>
+        <v>0.08760981569362739</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.0630418076517715</v>
+        <v>0.0594048837349415</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1204480365897845</v>
+        <v>0.1182775716496119</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>41</v>
@@ -12259,19 +12259,19 @@
         <v>34655</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>24940</v>
+        <v>25163</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>45308</v>
+        <v>45785</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.07428847087848343</v>
+        <v>0.07428847087848345</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.0534617859143378</v>
+        <v>0.05393967926101213</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.09712329671327993</v>
+        <v>0.09814530512766512</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>74</v>
@@ -12280,19 +12280,19 @@
         <v>74388</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>59427</v>
+        <v>59077</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>91992</v>
+        <v>91492</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.08085516006928159</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.06459372405002965</v>
+        <v>0.06421334966932106</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.09998903913688853</v>
+        <v>0.09944618878954678</v>
       </c>
     </row>
     <row r="32">
@@ -12359,7 +12359,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>4522</v>
+        <v>4064</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.001779936370499776</v>
@@ -12368,7 +12368,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.009969985922599782</v>
+        <v>0.008960304506003878</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>0</v>
@@ -12393,7 +12393,7 @@
         <v>0</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>4629</v>
+        <v>4081</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.0008774105832905032</v>
@@ -12402,7 +12402,7 @@
         <v>0</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.005031314066687087</v>
+        <v>0.004435569425982572</v>
       </c>
     </row>
     <row r="34">
@@ -12419,19 +12419,19 @@
         <v>11746</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>6096</v>
+        <v>6399</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>19453</v>
+        <v>21076</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.02590057412723493</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.01344125949141145</v>
+        <v>0.01411005125967727</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.04289402962692709</v>
+        <v>0.04647172777373376</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>13</v>
@@ -12440,19 +12440,19 @@
         <v>13595</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>7172</v>
+        <v>7542</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>24060</v>
+        <v>24062</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.02914244461774847</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.01537313964397913</v>
+        <v>0.01616737366760571</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.05157482583316158</v>
+        <v>0.05158063791688206</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>25</v>
@@ -12461,19 +12461,19 @@
         <v>25341</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>15484</v>
+        <v>16224</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>37300</v>
+        <v>36997</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.02754438104357976</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.01683004004511726</v>
+        <v>0.01763441469125811</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.04054277447090837</v>
+        <v>0.04021365889632813</v>
       </c>
     </row>
     <row r="35">
@@ -12490,19 +12490,19 @@
         <v>22886</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>13484</v>
+        <v>13766</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>39397</v>
+        <v>39209</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.05046308794346663</v>
+        <v>0.05046308794346665</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.02973303390489433</v>
+        <v>0.03035465174378153</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.08687029210388648</v>
+        <v>0.08645548734020643</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>33</v>
@@ -12511,19 +12511,19 @@
         <v>22111</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>14829</v>
+        <v>15278</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>31825</v>
+        <v>30756</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.04739851335454932</v>
+        <v>0.04739851335454933</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.03178750888375503</v>
+        <v>0.0327511462262788</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.06822038104267669</v>
+        <v>0.06593019044928125</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>50</v>
@@ -12532,19 +12532,19 @@
         <v>44997</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>32985</v>
+        <v>31952</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>61872</v>
+        <v>61219</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.0489091798155331</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.0358522630674934</v>
+        <v>0.03473027295189924</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.06725090251721338</v>
+        <v>0.06654171418716789</v>
       </c>
     </row>
     <row r="36">
@@ -12561,19 +12561,19 @@
         <v>12999</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>6406</v>
+        <v>7202</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>21951</v>
+        <v>23240</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.0286628949355095</v>
+        <v>0.02866289493550951</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.01412567417370146</v>
+        <v>0.01588118085670014</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.04840137048930302</v>
+        <v>0.05124503206477488</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>21</v>
@@ -12582,19 +12582,19 @@
         <v>17122</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>10980</v>
+        <v>10755</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>26447</v>
+        <v>25827</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.03670393893634872</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.02353674239921628</v>
+        <v>0.02305380388006555</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.0566933684275294</v>
+        <v>0.05536295606242957</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>32</v>
@@ -12603,19 +12603,19 @@
         <v>30121</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>21150</v>
+        <v>20597</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>42800</v>
+        <v>42275</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.03274014718290535</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.02298885683443574</v>
+        <v>0.0223880044984169</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.04652113307790012</v>
+        <v>0.04595032312190749</v>
       </c>
     </row>
     <row r="37">
@@ -12632,19 +12632,19 @@
         <v>7354</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>2572</v>
+        <v>2590</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>18538</v>
+        <v>18033</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.01621598857118611</v>
+        <v>0.01621598857118612</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.005671028432477614</v>
+        <v>0.005711485879715379</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.04087636671014174</v>
+        <v>0.03976159685614321</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>7</v>
@@ -12653,19 +12653,19 @@
         <v>7014</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>2807</v>
+        <v>3108</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>14632</v>
+        <v>15302</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.01503569407008198</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.006016897462536656</v>
+        <v>0.006662103736525943</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.03136496478681506</v>
+        <v>0.03280257218810682</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>12</v>
@@ -12674,19 +12674,19 @@
         <v>14368</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>7135</v>
+        <v>7771</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>25883</v>
+        <v>27135</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.01561751424288826</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.007755350075246788</v>
+        <v>0.00844670318606615</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.02813272158934737</v>
+        <v>0.02949400651703124</v>
       </c>
     </row>
     <row r="38">
@@ -12703,19 +12703,19 @@
         <v>357992</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>336613</v>
+        <v>337349</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>374602</v>
+        <v>375735</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.7893677023584755</v>
+        <v>0.7893677023584756</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.7422275975914848</v>
+        <v>0.7438513279925308</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.8259926827185358</v>
+        <v>0.8284904625547849</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>626</v>
@@ -12724,19 +12724,19 @@
         <v>372001</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>355603</v>
+        <v>355135</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>387722</v>
+        <v>387226</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.797430938142788</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.7622804357443131</v>
+        <v>0.7612767438873976</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.8311316817919303</v>
+        <v>0.8300684135053316</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>1067</v>
@@ -12745,19 +12745,19 @@
         <v>729992</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>705343</v>
+        <v>704517</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>754535</v>
+        <v>753634</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.7934562070625214</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.7666639999252047</v>
+        <v>0.7657665347738186</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.8201324326540431</v>
+        <v>0.8191527749815301</v>
       </c>
     </row>
     <row r="39">
@@ -12849,19 +12849,19 @@
         <v>105410</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>82632</v>
+        <v>83414</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>129763</v>
+        <v>130921</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.0746778323661073</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.05854112065873277</v>
+        <v>0.05909478163787359</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.09193085324530664</v>
+        <v>0.09275186599462082</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>145</v>
@@ -12870,19 +12870,19 @@
         <v>115544</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>97957</v>
+        <v>99040</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>136609</v>
+        <v>136897</v>
       </c>
       <c r="N40" s="6" t="n">
-        <v>0.07271185958938936</v>
+        <v>0.07271185958938935</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.0616444445105047</v>
+        <v>0.06232596925883929</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.08596805603022577</v>
+        <v>0.0861488024544286</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>229</v>
@@ -12891,19 +12891,19 @@
         <v>220954</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>193742</v>
+        <v>190983</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>253148</v>
+        <v>252355</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.07363668191094999</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.06456778706724432</v>
+        <v>0.06364844296042105</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.08436586494998642</v>
+        <v>0.08410148539514918</v>
       </c>
     </row>
     <row r="41">
@@ -12970,7 +12970,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>6030</v>
+        <v>6011</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.001223676072340003</v>
@@ -12979,7 +12979,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.004272262219994726</v>
+        <v>0.004258534884885872</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>1</v>
@@ -12991,7 +12991,7 @@
         <v>0</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>3290</v>
+        <v>3303</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.0004133889708881065</v>
@@ -13000,7 +13000,7 @@
         <v>0</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.002070239511047783</v>
+        <v>0.002078541322129364</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>3</v>
@@ -13009,19 +13009,19 @@
         <v>2384</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>6483</v>
+        <v>6706</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.0007945598635728012</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.0002179586611268172</v>
+        <v>0.0002169053233164811</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.002160707085381821</v>
+        <v>0.002234829216534103</v>
       </c>
     </row>
     <row r="43">
@@ -13038,19 +13038,19 @@
         <v>17338</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>10199</v>
+        <v>10348</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>27853</v>
+        <v>29043</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.01228314996852695</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.007225613370808132</v>
+        <v>0.007331303436974659</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.01973262854699297</v>
+        <v>0.02057594743176564</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>26</v>
@@ -13059,19 +13059,19 @@
         <v>23085</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>14264</v>
+        <v>14749</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>34134</v>
+        <v>35537</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.01452762863218263</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.008976428422597094</v>
+        <v>0.009281513798128091</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.0214806201495628</v>
+        <v>0.02236348910191496</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>42</v>
@@ -13080,19 +13080,19 @@
         <v>40423</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>29374</v>
+        <v>29216</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>55164</v>
+        <v>55104</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.0134717930717937</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.009789265711926547</v>
+        <v>0.009736672247098389</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.0183842166045906</v>
+        <v>0.01836422982940355</v>
       </c>
     </row>
     <row r="44">
@@ -13109,19 +13109,19 @@
         <v>54934</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>39926</v>
+        <v>40757</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>71968</v>
+        <v>74002</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.03891836202612915</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.02828569732267836</v>
+        <v>0.02887420637102929</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.05098629559844699</v>
+        <v>0.05242678669189968</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>79</v>
@@ -13130,19 +13130,19 @@
         <v>57702</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>44697</v>
+        <v>45920</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>71938</v>
+        <v>72580</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.03631204441799919</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.02812756881353858</v>
+        <v>0.02889727420252271</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.04527063221878754</v>
+        <v>0.04567456355099681</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>129</v>
@@ -13151,19 +13151,19 @@
         <v>112637</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>92345</v>
+        <v>93565</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>136200</v>
+        <v>136722</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.0375380943051696</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.03077570252146238</v>
+        <v>0.03118227547705577</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.04539097037374797</v>
+        <v>0.04556500761863775</v>
       </c>
     </row>
     <row r="45">
@@ -13180,19 +13180,19 @@
         <v>52745</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>38819</v>
+        <v>38974</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>69997</v>
+        <v>68708</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.03736739445141558</v>
+        <v>0.03736739445141559</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.0275011791021159</v>
+        <v>0.02761153227471901</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.04958960796373872</v>
+        <v>0.04867653065450324</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>66</v>
@@ -13201,19 +13201,19 @@
         <v>52342</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>40676</v>
+        <v>40386</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>65606</v>
+        <v>67195</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.03293895542658529</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.0255975967615718</v>
+        <v>0.0254145461868882</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.04128591944674306</v>
+        <v>0.04228545204695248</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>113</v>
@@ -13222,19 +13222,19 @@
         <v>105087</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>86269</v>
+        <v>87428</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>126758</v>
+        <v>125854</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.0350221578535642</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.0287505376153905</v>
+        <v>0.02913700234375998</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.04224435899545526</v>
+        <v>0.04194293673666019</v>
       </c>
     </row>
     <row r="46">
@@ -13251,19 +13251,19 @@
         <v>11559</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>5284</v>
+        <v>5389</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>23514</v>
+        <v>23488</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.008189015785452567</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.003743694619195402</v>
+        <v>0.003817655987601376</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.01665858102829207</v>
+        <v>0.01664015957964669</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>20</v>
@@ -13272,19 +13272,19 @@
         <v>19998</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>11900</v>
+        <v>11141</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>31255</v>
+        <v>30376</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.01258451514137342</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.007488816531651453</v>
+        <v>0.007010832046992913</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.01966902293427568</v>
+        <v>0.01911556626322113</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>29</v>
@@ -13293,19 +13293,19 @@
         <v>31557</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>21642</v>
+        <v>21880</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>45299</v>
+        <v>46196</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.01051680801597397</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.007212603794758344</v>
+        <v>0.007291881521504483</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.01509659734023066</v>
+        <v>0.01539567106503259</v>
       </c>
     </row>
     <row r="47">
@@ -13322,19 +13322,19 @@
         <v>1167811</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>1135639</v>
+        <v>1136345</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>1197060</v>
+        <v>1199376</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.8273405693300285</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.8045484304097453</v>
+        <v>0.8050481110674211</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.8480618833247353</v>
+        <v>0.8497029984214984</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>2220</v>
@@ -13343,19 +13343,19 @@
         <v>1319743</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>1290688</v>
+        <v>1293947</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>1346133</v>
+        <v>1348102</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.8305116078215818</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.8122276528576274</v>
+        <v>0.8142785247819544</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.8471188171060391</v>
+        <v>0.848357787854138</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>3671</v>
@@ -13364,19 +13364,19 @@
         <v>2487554</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>2446125</v>
+        <v>2442341</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>2528635</v>
+        <v>2525451</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.8290199049789756</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.8152130517910151</v>
+        <v>0.8139519286365705</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.8427110432455116</v>
+        <v>0.8416497536021539</v>
       </c>
     </row>
     <row r="48">
